--- a/AAII_Financials/Quarterly/ARKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARKR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>ARKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,219 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="E7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E8" s="3">
         <v>41700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>44800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>35300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>40500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>40600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>44800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>35300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>39300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>39800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>41200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>34600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>38400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E9" s="3">
         <v>11500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11200</v>
-      </c>
-      <c r="N9" s="3">
-        <v>9800</v>
       </c>
       <c r="O9" s="3">
         <v>9800</v>
       </c>
       <c r="P9" s="3">
+        <v>9800</v>
+      </c>
+      <c r="Q9" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E10" s="3">
         <v>30200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>33100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>30000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>29400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>32900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>25600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>30000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>28700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -926,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,26 +986,29 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>2900</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1009,21 +1028,24 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-1400</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E15" s="3">
         <v>1700</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1200</v>
       </c>
       <c r="F15" s="3">
         <v>1200</v>
@@ -1035,7 +1057,7 @@
         <v>1200</v>
       </c>
       <c r="I15" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J15" s="3">
         <v>1300</v>
@@ -1044,22 +1066,25 @@
         <v>1300</v>
       </c>
       <c r="L15" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="M15" s="3">
         <v>1000</v>
       </c>
       <c r="N15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O15" s="3">
         <v>2100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>1200</v>
       </c>
       <c r="P15" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E17" s="3">
         <v>43600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>40100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>35200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>40200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>39600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>41000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>35800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>37600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>38900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>34900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>35500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1194,11 +1227,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1206,80 +1239,86 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
       </c>
       <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
       </c>
       <c r="F22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
@@ -1294,113 +1333,122 @@
         <v>300</v>
       </c>
       <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1592,20 +1652,20 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>-2600</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>1200</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1619,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1722,11 +1791,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1734,69 +1803,75 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
       </c>
       <c r="P32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="E38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,8 +2053,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1977,43 +2063,46 @@
         <v>7200</v>
       </c>
       <c r="E41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F41" s="3">
         <v>5600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2029,93 +2118,99 @@
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3">
         <v>200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>200</v>
-      </c>
-      <c r="L42" s="3">
-        <v>400</v>
       </c>
       <c r="M42" s="3">
         <v>400</v>
       </c>
       <c r="N42" s="3">
+        <v>400</v>
+      </c>
+      <c r="O42" s="3">
         <v>100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E43" s="3">
         <v>3000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3500</v>
-      </c>
-      <c r="H43" s="3">
-        <v>3800</v>
       </c>
       <c r="I43" s="3">
         <v>3800</v>
       </c>
       <c r="J43" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K43" s="3">
         <v>3900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4300</v>
-      </c>
-      <c r="O43" s="3">
-        <v>4200</v>
       </c>
       <c r="P43" s="3">
         <v>4200</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E44" s="3">
         <v>2200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>2100</v>
       </c>
       <c r="H44" s="3">
         <v>2100</v>
@@ -2124,7 +2219,7 @@
         <v>2100</v>
       </c>
       <c r="J44" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K44" s="3">
         <v>2000</v>
@@ -2133,107 +2228,116 @@
         <v>2000</v>
       </c>
       <c r="M44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N44" s="3">
         <v>2100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1600</v>
       </c>
       <c r="F45" s="3">
         <v>1600</v>
       </c>
       <c r="G45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H45" s="3">
         <v>2000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E46" s="3">
         <v>13700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2241,7 +2345,7 @@
         <v>6800</v>
       </c>
       <c r="E47" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="F47" s="3">
         <v>7100</v>
@@ -2250,7 +2354,7 @@
         <v>7100</v>
       </c>
       <c r="H47" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="I47" s="3">
         <v>7000</v>
@@ -2271,57 +2375,63 @@
         <v>7000</v>
       </c>
       <c r="O47" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="P47" s="3">
         <v>6700</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>99900</v>
+      </c>
+      <c r="E48" s="3">
         <v>47800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>44100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>44000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>44300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>45300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>46100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>46300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>46500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>45200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>44100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>37800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>36900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2332,13 +2442,13 @@
         <v>19600</v>
       </c>
       <c r="F49" s="3">
-        <v>12800</v>
+        <v>19600</v>
       </c>
       <c r="G49" s="3">
         <v>12800</v>
       </c>
       <c r="H49" s="3">
-        <v>13600</v>
+        <v>12800</v>
       </c>
       <c r="I49" s="3">
         <v>13600</v>
@@ -2359,13 +2469,16 @@
         <v>13600</v>
       </c>
       <c r="O49" s="3">
+        <v>13600</v>
+      </c>
+      <c r="P49" s="3">
         <v>12800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,28 +2568,31 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E52" s="3">
         <v>6700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>5400</v>
       </c>
       <c r="J52" s="3">
         <v>5400</v>
@@ -2482,22 +2601,25 @@
         <v>5400</v>
       </c>
       <c r="L52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="M52" s="3">
         <v>4200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>5300</v>
       </c>
       <c r="N52" s="3">
         <v>5300</v>
       </c>
       <c r="O52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="P52" s="3">
         <v>5600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>147200</v>
+      </c>
+      <c r="E54" s="3">
         <v>94700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>89800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>79800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>80600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>84700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>85200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>81900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>81000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>80100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>78800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>74200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>75200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>68300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>4500</v>
       </c>
       <c r="G57" s="3">
         <v>4500</v>
       </c>
       <c r="H57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I57" s="3">
         <v>5000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>4600</v>
       </c>
       <c r="J57" s="3">
         <v>4600</v>
       </c>
       <c r="K57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L57" s="3">
         <v>5000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2676,198 +2809,210 @@
         <v>2700</v>
       </c>
       <c r="F58" s="3">
-        <v>1200</v>
+        <v>2700</v>
       </c>
       <c r="G58" s="3">
         <v>1200</v>
       </c>
       <c r="H58" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I58" s="3">
         <v>1300</v>
       </c>
       <c r="J58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K58" s="3">
         <v>15200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7900</v>
-      </c>
-      <c r="N58" s="3">
-        <v>4200</v>
       </c>
       <c r="O58" s="3">
         <v>4200</v>
       </c>
       <c r="P58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Q58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E59" s="3">
         <v>11800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E60" s="3">
         <v>18100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>17600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>30000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>24000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E61" s="3">
         <v>23800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>20200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E62" s="3">
         <v>10100</v>
-      </c>
-      <c r="E62" s="3">
-        <v>3000</v>
       </c>
       <c r="F62" s="3">
         <v>3000</v>
       </c>
       <c r="G62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H62" s="3">
         <v>3100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3500</v>
-      </c>
-      <c r="K62" s="3">
-        <v>3600</v>
       </c>
       <c r="L62" s="3">
         <v>3600</v>
@@ -2879,13 +3024,16 @@
         <v>3600</v>
       </c>
       <c r="O62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P62" s="3">
         <v>3500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>104600</v>
+      </c>
+      <c r="E66" s="3">
         <v>52800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>46500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>39800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>39100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>42400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>42900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>42000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>39600</v>
       </c>
       <c r="L66" s="3">
         <v>39600</v>
       </c>
       <c r="M66" s="3">
+        <v>39600</v>
+      </c>
+      <c r="N66" s="3">
         <v>38800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>34800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>34600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E72" s="3">
         <v>28600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>30000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>26900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>28400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>29400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>28800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>27000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>28500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>27800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>27300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>26800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>28000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E76" s="3">
         <v>41900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>43300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>39900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>41500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>42300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>42200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>39900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>41400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>40400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>39900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>39400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>40600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="E80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,16 +3826,17 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1200</v>
       </c>
       <c r="F83" s="3">
         <v>1200</v>
@@ -3650,7 +3848,7 @@
         <v>1200</v>
       </c>
       <c r="I83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J83" s="3">
         <v>1300</v>
@@ -3659,22 +3857,25 @@
         <v>1300</v>
       </c>
       <c r="L83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M83" s="3">
         <v>900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1100</v>
       </c>
       <c r="O83" s="3">
         <v>1100</v>
       </c>
       <c r="P83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E89" s="3">
         <v>3900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4158,31 +4391,31 @@
         <v>-900</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-900</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>-900</v>
@@ -4193,8 +4426,11 @@
       <c r="P96" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4334,43 +4579,46 @@
         <v>-1600</v>
       </c>
       <c r="E100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1800</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>4000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARKR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>ARKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,245 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F8" s="3">
         <v>43500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>41700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>44800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>35300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>40500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>40600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>44800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>35300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>39300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>39800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>41200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>34600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>38400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F9" s="3">
         <v>10900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>11500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>11700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>9800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>10500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>11200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>11900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>9700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>10200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>10800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>11200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>9800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>9800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F10" s="3">
         <v>32600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>30200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>33100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>25500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>30000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>29400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>32900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>25600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>29100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>29000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>30000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>24800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>28700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +970,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1023,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -998,23 +1038,23 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2900</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1031,27 +1071,33 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="3">
         <v>1200</v>
       </c>
       <c r="G15" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="H15" s="3">
         <v>1200</v>
@@ -1060,31 +1106,37 @@
         <v>1200</v>
       </c>
       <c r="J15" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K15" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="L15" s="3">
         <v>1300</v>
       </c>
       <c r="M15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O15" s="3">
         <v>1000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>1000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>2100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>1200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1151,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>35900</v>
+      </c>
+      <c r="F17" s="3">
         <v>41100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>43600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>40100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>35200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>40200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>39600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>41000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>35800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>38500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>37600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>38900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>34900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>35500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2400</v>
+        <v>-5600</v>
       </c>
       <c r="E18" s="3">
         <v>-1900</v>
       </c>
       <c r="F18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H18" s="3">
         <v>4700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>3000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1278,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1230,101 +1298,113 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
         <v>3600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>5900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>2200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>5100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>3500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>4200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
@@ -1336,7 +1416,7 @@
         <v>300</v>
       </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>300</v>
@@ -1345,110 +1425,128 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
+        <v>200</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F23" s="3">
         <v>2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>4400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>3000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>-3100</v>
       </c>
       <c r="E24" s="3">
-        <v>-1300</v>
+        <v>-400</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
       </c>
       <c r="G24" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F26" s="3">
         <v>1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>3700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1300</v>
       </c>
       <c r="N26" s="3">
         <v>1700</v>
       </c>
       <c r="O26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F27" s="3">
         <v>1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>4000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1655,23 +1777,23 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-2600</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>1200</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1910,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1794,84 +1934,96 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F33" s="3">
         <v>1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>4000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F35" s="3">
         <v>1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>4000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2226,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F41" s="3">
         <v>7200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>7200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1000</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2121,246 +2301,276 @@
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>300</v>
-      </c>
-      <c r="K42" s="3">
-        <v>400</v>
-      </c>
-      <c r="L42" s="3">
-        <v>200</v>
       </c>
       <c r="M42" s="3">
         <v>400</v>
       </c>
       <c r="N42" s="3">
+        <v>200</v>
+      </c>
+      <c r="O42" s="3">
         <v>400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q42" s="3">
         <v>100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F43" s="3">
         <v>2800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>3000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>4100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>4300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>4200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F44" s="3">
         <v>3200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I44" s="3">
-        <v>2100</v>
       </c>
       <c r="J44" s="3">
         <v>2100</v>
       </c>
       <c r="K44" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="L44" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="M44" s="3">
         <v>2000</v>
       </c>
       <c r="N44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P44" s="3">
         <v>2100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14300</v>
+        <v>28900</v>
       </c>
       <c r="E46" s="3">
         <v>13700</v>
       </c>
       <c r="F46" s="3">
+        <v>14300</v>
+      </c>
+      <c r="G46" s="3">
+        <v>13700</v>
+      </c>
+      <c r="H46" s="3">
         <v>13500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>10100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>10800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>13200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>13100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>9500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>8600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>10100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>8800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>10500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>13200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="E47" s="3">
         <v>6800</v>
       </c>
       <c r="F47" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="G47" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="H47" s="3">
         <v>7100</v>
       </c>
       <c r="I47" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="J47" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="K47" s="3">
         <v>7000</v>
@@ -2378,83 +2588,95 @@
         <v>7000</v>
       </c>
       <c r="P47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="R47" s="3">
         <v>6700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>96600</v>
+      </c>
+      <c r="F48" s="3">
         <v>99900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>47800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>44100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>44000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>44300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>45300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>46100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>46300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>46500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>45200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>44100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>37800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>36900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19600</v>
+        <v>19300</v>
       </c>
       <c r="E49" s="3">
-        <v>19600</v>
+        <v>19300</v>
       </c>
       <c r="F49" s="3">
         <v>19600</v>
       </c>
       <c r="G49" s="3">
+        <v>19600</v>
+      </c>
+      <c r="H49" s="3">
+        <v>19600</v>
+      </c>
+      <c r="I49" s="3">
         <v>12800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>12800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>13600</v>
-      </c>
-      <c r="J49" s="3">
-        <v>13600</v>
       </c>
       <c r="K49" s="3">
         <v>13600</v>
@@ -2472,13 +2694,19 @@
         <v>13600</v>
       </c>
       <c r="P49" s="3">
+        <v>13600</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>13600</v>
+      </c>
+      <c r="R49" s="3">
         <v>12800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2805,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6600</v>
+        <v>7900</v>
       </c>
       <c r="E52" s="3">
         <v>6700</v>
       </c>
       <c r="F52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G52" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H52" s="3">
         <v>5500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>5600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>5700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>5400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>5400</v>
       </c>
       <c r="L52" s="3">
         <v>5400</v>
       </c>
       <c r="M52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="N52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="O52" s="3">
         <v>4200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>5300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>5600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2911,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>157300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>143200</v>
+      </c>
+      <c r="F54" s="3">
         <v>147200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>94700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>89800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>79800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>80600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>84700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>85200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>81900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>81000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>80100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>78800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>74200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>75200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>68300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +3010,63 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F57" s="3">
         <v>4300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>5000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>5000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2812,213 +3080,237 @@
         <v>2700</v>
       </c>
       <c r="G58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>15200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>12700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>10400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>7900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F59" s="3">
         <v>17300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>11800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>11700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>9800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>9300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>11600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>10300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>9000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>11000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>11600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>10900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>10000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>23700</v>
+      </c>
+      <c r="F60" s="3">
         <v>24300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>18100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>17800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>15600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>15000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>17800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>17600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>30000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>26800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>26200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>24000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>19100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>17700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>25500</v>
+      </c>
+      <c r="F61" s="3">
         <v>23100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>23800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>24500</v>
-      </c>
-      <c r="G61" s="3">
-        <v>19900</v>
-      </c>
-      <c r="H61" s="3">
-        <v>19600</v>
       </c>
       <c r="I61" s="3">
         <v>19900</v>
       </c>
       <c r="J61" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K61" s="3">
+        <v>19900</v>
+      </c>
+      <c r="L61" s="3">
         <v>20200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>6800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>7500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>7800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>9000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>10000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>11100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>53200</v>
+      </c>
+      <c r="F62" s="3">
         <v>56200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>10100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>3600</v>
-      </c>
-      <c r="M62" s="3">
-        <v>3600</v>
       </c>
       <c r="N62" s="3">
         <v>3600</v>
@@ -3027,13 +3319,19 @@
         <v>3600</v>
       </c>
       <c r="P62" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="Q62" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S62" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3483,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>119800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>103200</v>
+      </c>
+      <c r="F66" s="3">
         <v>104600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>52800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>46500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>39800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>39100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>42400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>42900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>42000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>39600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>39600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>38800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>34800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>34600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3769,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>26500</v>
+      </c>
+      <c r="F72" s="3">
         <v>29200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>28600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>30000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>26900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>28400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>29400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>28800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>27000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>28500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>27800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>27300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>26800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>28000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3981,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>40000</v>
+      </c>
+      <c r="F76" s="3">
         <v>42500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>41900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>43300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>39900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>41500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>42300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>42200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>39900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>41400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>40400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>39900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>39400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>40600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F81" s="3">
         <v>1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>4000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,22 +4223,24 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E83" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="F83" s="3">
         <v>1200</v>
       </c>
       <c r="G83" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="H83" s="3">
         <v>1200</v>
@@ -3851,31 +4249,37 @@
         <v>1200</v>
       </c>
       <c r="J83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="L83" s="3">
         <v>1300</v>
       </c>
       <c r="M83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O83" s="3">
         <v>900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>1000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>1100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>3900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>4800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>2000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>5300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>2000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>5200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4615,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-800</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-900</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-1000</v>
       </c>
       <c r="G91" s="3">
         <v>-900</v>
       </c>
       <c r="H91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-7300</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-1700</v>
       </c>
       <c r="Q91" s="3">
         <v>-2800</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-2800</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4770,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-7300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-3000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,46 +4848,48 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>-900</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="G96" s="3">
         <v>-900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-900</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="K96" s="3">
         <v>-900</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-900</v>
-      </c>
       <c r="O96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-900</v>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5056,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-2100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5162,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>13400</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>2700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1800</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>4000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARKR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,271 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44107</v>
+      </c>
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F8" s="3">
         <v>7200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>34000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>43500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>41700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>44800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>35300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>40500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>40600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>44800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>35300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>39300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>39800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>41200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>34600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>38400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F9" s="3">
         <v>1800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>9600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>10900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>11500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>11700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>9800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>10500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>11200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>11900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>9700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>10200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>10800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>11200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>9800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>9800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F10" s="3">
         <v>5400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>24400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>32600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>30200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>33100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>25500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>30000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>29400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>32900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>25600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>29100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>29000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>30000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>24800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>28700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +949,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +1004,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,38 +1063,44 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>2900</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1077,33 +1117,39 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-1400</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>900</v>
+      </c>
+      <c r="F15" s="3">
         <v>1000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>1000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1700</v>
       </c>
       <c r="H15" s="3">
         <v>1200</v>
       </c>
       <c r="I15" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="J15" s="3">
         <v>1200</v>
@@ -1112,31 +1158,37 @@
         <v>1200</v>
       </c>
       <c r="L15" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="M15" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="N15" s="3">
         <v>1300</v>
       </c>
       <c r="O15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q15" s="3">
         <v>1000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>1000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>2100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>1200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1205,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F17" s="3">
         <v>12800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>35900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>41100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>43600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>40100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>35200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>40200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>39600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>41000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>35800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>38500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>37600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>38900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>34900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>35500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5600</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2400</v>
       </c>
       <c r="G18" s="3">
         <v>-1900</v>
       </c>
       <c r="H18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J18" s="3">
         <v>4700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>3800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>3000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1346,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1304,90 +1372,102 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>3600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>5900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>5100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>3500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>4200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,22 +1475,22 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
@@ -1422,7 +1502,7 @@
         <v>300</v>
       </c>
       <c r="N22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O22" s="3">
         <v>300</v>
@@ -1431,122 +1511,140 @@
         <v>200</v>
       </c>
       <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
+        <v>200</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>4400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>3500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>3000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-1300</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
       </c>
       <c r="I24" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1696,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2800</v>
+        <v>-700</v>
       </c>
       <c r="E26" s="3">
         <v>-1800</v>
       </c>
       <c r="F26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H26" s="3">
         <v>1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>3700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O26" s="3">
-        <v>1300</v>
       </c>
       <c r="P26" s="3">
         <v>1700</v>
       </c>
       <c r="Q26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>2100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1873,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1783,23 +1905,23 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-2600</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>1200</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1810,8 +1932,14 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1991,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +2050,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1931,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1940,90 +2080,102 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2227,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44107</v>
+      </c>
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2377,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,326 +2400,364 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F41" s="3">
         <v>20700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>7300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>7200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>7200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>5600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1000</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>300</v>
-      </c>
-      <c r="M42" s="3">
-        <v>400</v>
-      </c>
-      <c r="N42" s="3">
-        <v>200</v>
       </c>
       <c r="O42" s="3">
         <v>400</v>
       </c>
       <c r="P42" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q42" s="3">
         <v>400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
+        <v>400</v>
+      </c>
+      <c r="S42" s="3">
         <v>100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>4100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>4300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>4200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F44" s="3">
         <v>2700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>3200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>2000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K44" s="3">
-        <v>2100</v>
       </c>
       <c r="L44" s="3">
         <v>2100</v>
       </c>
       <c r="M44" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="N44" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="O44" s="3">
         <v>2000</v>
       </c>
       <c r="P44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R44" s="3">
         <v>2100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>2500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>2200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F45" s="3">
         <v>3800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>26900</v>
+      </c>
+      <c r="F46" s="3">
         <v>28900</v>
-      </c>
-      <c r="E46" s="3">
-        <v>13700</v>
-      </c>
-      <c r="F46" s="3">
-        <v>14300</v>
       </c>
       <c r="G46" s="3">
         <v>13700</v>
       </c>
       <c r="H46" s="3">
+        <v>14300</v>
+      </c>
+      <c r="I46" s="3">
+        <v>13700</v>
+      </c>
+      <c r="J46" s="3">
         <v>13500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>10100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>10800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>13200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>13100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>9500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>8600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>10100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>8800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>10500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>13200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2555,28 +2765,28 @@
         <v>6900</v>
       </c>
       <c r="E47" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="F47" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="G47" s="3">
         <v>6800</v>
       </c>
       <c r="H47" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="I47" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="J47" s="3">
         <v>7100</v>
       </c>
       <c r="K47" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="L47" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="M47" s="3">
         <v>7000</v>
@@ -2594,95 +2804,107 @@
         <v>7000</v>
       </c>
       <c r="R47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="S47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="T47" s="3">
         <v>6700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>91900</v>
+      </c>
+      <c r="F48" s="3">
         <v>94300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>96600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>99900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>47800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>44100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>44000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>44300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>45300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>46100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>46300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>46500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>45200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>44100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>37800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>36900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19300</v>
+        <v>22100</v>
       </c>
       <c r="E49" s="3">
         <v>19300</v>
       </c>
       <c r="F49" s="3">
-        <v>19600</v>
+        <v>19300</v>
       </c>
       <c r="G49" s="3">
-        <v>19600</v>
+        <v>19300</v>
       </c>
       <c r="H49" s="3">
         <v>19600</v>
       </c>
       <c r="I49" s="3">
+        <v>19600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K49" s="3">
         <v>12800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>12800</v>
-      </c>
-      <c r="K49" s="3">
-        <v>13600</v>
-      </c>
-      <c r="L49" s="3">
-        <v>13600</v>
       </c>
       <c r="M49" s="3">
         <v>13600</v>
@@ -2700,13 +2922,19 @@
         <v>13600</v>
       </c>
       <c r="R49" s="3">
+        <v>13600</v>
+      </c>
+      <c r="S49" s="3">
+        <v>13600</v>
+      </c>
+      <c r="T49" s="3">
         <v>12800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2986,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +3045,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F52" s="3">
         <v>7900</v>
-      </c>
-      <c r="E52" s="3">
-        <v>6700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>6600</v>
       </c>
       <c r="G52" s="3">
         <v>6700</v>
       </c>
       <c r="H52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I52" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J52" s="3">
         <v>5500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>5800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>5600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5700</v>
-      </c>
-      <c r="L52" s="3">
-        <v>5400</v>
-      </c>
-      <c r="M52" s="3">
-        <v>5400</v>
       </c>
       <c r="N52" s="3">
         <v>5400</v>
       </c>
       <c r="O52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="P52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Q52" s="3">
         <v>4200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>5300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>5300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>5600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3163,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>158800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>153300</v>
+      </c>
+      <c r="F54" s="3">
         <v>157300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>143200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>147200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>94700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>89800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>79800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>80600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>84700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>85200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>81900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>81000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>80100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>78800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>74200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>75200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>68300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3249,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,69 +3272,77 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>5000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>4000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2700</v>
+        <v>4100</v>
       </c>
       <c r="E58" s="3">
-        <v>2700</v>
+        <v>9000</v>
       </c>
       <c r="F58" s="3">
         <v>2700</v>
@@ -3086,237 +3354,261 @@
         <v>2700</v>
       </c>
       <c r="I58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>15200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>12700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>10400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>7900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>4200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>4200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F59" s="3">
         <v>18300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>16600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>17300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>11800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>11700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>9800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>9300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>11600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>11800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>10300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>9000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>11000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>11600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>10900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>10000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>30100</v>
+      </c>
+      <c r="F60" s="3">
         <v>23800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>23700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>24300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>18100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>17800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>15600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>15000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>17800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>17600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>30000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>26800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>26200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>24000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>19100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>17700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>36100</v>
+      </c>
+      <c r="F61" s="3">
         <v>43700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>25500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>23100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>23800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>24500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>19900</v>
-      </c>
-      <c r="J61" s="3">
-        <v>19600</v>
       </c>
       <c r="K61" s="3">
         <v>19900</v>
       </c>
       <c r="L61" s="3">
+        <v>19600</v>
+      </c>
+      <c r="M61" s="3">
+        <v>19900</v>
+      </c>
+      <c r="N61" s="3">
         <v>20200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>6800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>7500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>7800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>9000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>10000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>11100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F62" s="3">
         <v>51600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>53200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>56200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>10100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3500</v>
-      </c>
-      <c r="N62" s="3">
-        <v>3600</v>
-      </c>
-      <c r="O62" s="3">
-        <v>3600</v>
       </c>
       <c r="P62" s="3">
         <v>3600</v>
@@ -3325,13 +3617,19 @@
         <v>3600</v>
       </c>
       <c r="R62" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="S62" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>3500</v>
+      </c>
+      <c r="U62" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3681,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3740,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3799,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>122900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>116800</v>
+      </c>
+      <c r="F66" s="3">
         <v>119800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>103200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>104600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>52800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>46500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>39800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>39100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>42400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>42900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>42000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>39600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>39600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>38800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>34800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>34600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3885,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3940,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3999,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4058,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4117,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F72" s="3">
         <v>24000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>26500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>29200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>28600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>30000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>26900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>28400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>29400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>28800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>27000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>28500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>27800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>27300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>26800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>28000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4235,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4294,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4353,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>36500</v>
+      </c>
+      <c r="F76" s="3">
         <v>37500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>40000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>42500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>41900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>43300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>39900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>41500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>42300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>42200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>39900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>41400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>40400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>39900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>39400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>40600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4471,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44107</v>
+      </c>
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,28 +4621,30 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>900</v>
+      </c>
+      <c r="F83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1700</v>
       </c>
       <c r="H83" s="3">
         <v>1200</v>
       </c>
       <c r="I83" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="J83" s="3">
         <v>1200</v>
@@ -4255,31 +4653,37 @@
         <v>1200</v>
       </c>
       <c r="L83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="M83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="N83" s="3">
         <v>1300</v>
       </c>
       <c r="O83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>1000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>1100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>1100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4735,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4794,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4853,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4912,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4971,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>3900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>4800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>5300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>5200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +5057,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1000</v>
       </c>
       <c r="I91" s="3">
         <v>-900</v>
       </c>
       <c r="J91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-2500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-7300</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-1700</v>
       </c>
       <c r="S91" s="3">
         <v>-2800</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-2800</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5171,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5230,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-2500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-3000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5316,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4859,43 +5327,43 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>-900</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="I96" s="3">
         <v>-900</v>
       </c>
       <c r="J96" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-900</v>
       </c>
       <c r="L96" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="M96" s="3">
         <v>-900</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-900</v>
-      </c>
       <c r="Q96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>-900</v>
@@ -4903,8 +5371,14 @@
       <c r="S96" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5430,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5489,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5548,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F100" s="3">
         <v>18200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-2200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-2100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5666,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F102" s="3">
         <v>13400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1800</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>4000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-3800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-2600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARKR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>ARKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,271 +665,283 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44198</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44107</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E8" s="3">
         <v>20300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>21800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>34000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>43500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>41700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>44800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>40500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>40600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>44800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>35300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>39300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>39800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>41200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>34600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>38400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E9" s="3">
         <v>5900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11200</v>
-      </c>
-      <c r="S9" s="3">
-        <v>9800</v>
       </c>
       <c r="T9" s="3">
         <v>9800</v>
       </c>
       <c r="U9" s="3">
+        <v>9800</v>
+      </c>
+      <c r="V9" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E10" s="3">
         <v>14400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>15600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>24400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>32600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>30200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>33100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>30000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>32900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>25600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>29100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>29000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>30000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>24800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>28700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1010,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,41 +1085,44 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>2900</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1123,36 +1142,39 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-1400</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="3">
         <v>900</v>
       </c>
       <c r="F15" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G15" s="3">
         <v>1000</v>
       </c>
       <c r="H15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="3">
         <v>1200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1200</v>
       </c>
       <c r="K15" s="3">
         <v>1200</v>
@@ -1164,7 +1186,7 @@
         <v>1200</v>
       </c>
       <c r="N15" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="O15" s="3">
         <v>1300</v>
@@ -1173,22 +1195,25 @@
         <v>1300</v>
       </c>
       <c r="Q15" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="R15" s="3">
         <v>1000</v>
       </c>
       <c r="S15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T15" s="3">
         <v>2100</v>
-      </c>
-      <c r="T15" s="3">
-        <v>1200</v>
       </c>
       <c r="U15" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E17" s="3">
         <v>23600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>35900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>41100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>43600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>40100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>35200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>40200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>39600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>41000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>35800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>38500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>37600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>38900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>34900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>35500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1357,17 +1390,17 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1378,11 +1411,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1390,84 +1423,90 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
       </c>
       <c r="U20" s="3">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1475,25 +1514,25 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
       </c>
       <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
         <v>500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>400</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
       </c>
       <c r="K22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
@@ -1508,143 +1547,152 @@
         <v>300</v>
       </c>
       <c r="P22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
-      </c>
-      <c r="R22" s="3">
-        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>200</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-3100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>3700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1911,20 +1971,20 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-2600</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1938,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2065,17 +2134,17 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2086,11 +2155,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2098,84 +2167,90 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
       </c>
       <c r="U32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44198</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44107</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E41" s="3">
         <v>10800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>7200</v>
       </c>
       <c r="I41" s="3">
         <v>7200</v>
       </c>
       <c r="J41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K41" s="3">
         <v>5600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1000</v>
       </c>
-      <c r="R41" s="3" t="s">
+      <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2487,129 +2576,135 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3">
         <v>200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>200</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>400</v>
       </c>
       <c r="R42" s="3">
         <v>400</v>
       </c>
       <c r="S42" s="3">
+        <v>400</v>
+      </c>
+      <c r="T42" s="3">
         <v>100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E43" s="3">
         <v>2800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3500</v>
-      </c>
-      <c r="M43" s="3">
-        <v>3800</v>
       </c>
       <c r="N43" s="3">
         <v>3800</v>
       </c>
       <c r="O43" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P43" s="3">
         <v>3900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4300</v>
-      </c>
-      <c r="T43" s="3">
-        <v>4200</v>
       </c>
       <c r="U43" s="3">
         <v>4200</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E44" s="3">
         <v>2400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2000</v>
-      </c>
-      <c r="L44" s="3">
-        <v>2100</v>
       </c>
       <c r="M44" s="3">
         <v>2100</v>
@@ -2618,7 +2713,7 @@
         <v>2100</v>
       </c>
       <c r="O44" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="P44" s="3">
         <v>2000</v>
@@ -2627,137 +2722,146 @@
         <v>2000</v>
       </c>
       <c r="R44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S44" s="3">
         <v>2100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E45" s="3">
         <v>6900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1600</v>
       </c>
       <c r="K45" s="3">
         <v>1600</v>
       </c>
       <c r="L45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M45" s="3">
         <v>2000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E46" s="3">
         <v>22900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>28900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2771,7 +2875,7 @@
         <v>6900</v>
       </c>
       <c r="G47" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="H47" s="3">
         <v>6800</v>
@@ -2780,7 +2884,7 @@
         <v>6800</v>
       </c>
       <c r="J47" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="K47" s="3">
         <v>7100</v>
@@ -2789,7 +2893,7 @@
         <v>7100</v>
       </c>
       <c r="M47" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="N47" s="3">
         <v>7000</v>
@@ -2810,72 +2914,78 @@
         <v>7000</v>
       </c>
       <c r="T47" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="U47" s="3">
         <v>6700</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>96100</v>
+      </c>
+      <c r="E48" s="3">
         <v>97200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>91900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>94300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>96600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>99900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>47800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>44100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>44000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>44300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>45300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>46100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>46300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>46500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>45200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>44100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>37800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>36900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2883,7 +2993,7 @@
         <v>22100</v>
       </c>
       <c r="E49" s="3">
-        <v>19300</v>
+        <v>22100</v>
       </c>
       <c r="F49" s="3">
         <v>19300</v>
@@ -2892,7 +3002,7 @@
         <v>19300</v>
       </c>
       <c r="H49" s="3">
-        <v>19600</v>
+        <v>19300</v>
       </c>
       <c r="I49" s="3">
         <v>19600</v>
@@ -2901,13 +3011,13 @@
         <v>19600</v>
       </c>
       <c r="K49" s="3">
-        <v>12800</v>
+        <v>19600</v>
       </c>
       <c r="L49" s="3">
         <v>12800</v>
       </c>
       <c r="M49" s="3">
-        <v>13600</v>
+        <v>12800</v>
       </c>
       <c r="N49" s="3">
         <v>13600</v>
@@ -2928,13 +3038,16 @@
         <v>13600</v>
       </c>
       <c r="T49" s="3">
+        <v>13600</v>
+      </c>
+      <c r="U49" s="3">
         <v>12800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,43 +3167,46 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E52" s="3">
         <v>9700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5700</v>
-      </c>
-      <c r="N52" s="3">
-        <v>5400</v>
       </c>
       <c r="O52" s="3">
         <v>5400</v>
@@ -3096,22 +3215,25 @@
         <v>5400</v>
       </c>
       <c r="Q52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="R52" s="3">
         <v>4200</v>
-      </c>
-      <c r="R52" s="3">
-        <v>5300</v>
       </c>
       <c r="S52" s="3">
         <v>5300</v>
       </c>
       <c r="T52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="U52" s="3">
         <v>5600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>160800</v>
+      </c>
+      <c r="E54" s="3">
         <v>158800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>153300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>157300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>143200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>147200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>94700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>89800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>79800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>80600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>84700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>85200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>81900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>81000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>80100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>78800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>74200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>75200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>68300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,78 +3403,82 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>4500</v>
       </c>
       <c r="L57" s="3">
         <v>4500</v>
       </c>
       <c r="M57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N57" s="3">
         <v>5000</v>
-      </c>
-      <c r="N57" s="3">
-        <v>4600</v>
       </c>
       <c r="O57" s="3">
         <v>4600</v>
       </c>
       <c r="P57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Q57" s="3">
         <v>5000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E58" s="3">
         <v>4100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2700</v>
       </c>
       <c r="G58" s="3">
         <v>2700</v>
@@ -3360,258 +3493,270 @@
         <v>2700</v>
       </c>
       <c r="K58" s="3">
-        <v>1200</v>
+        <v>2700</v>
       </c>
       <c r="L58" s="3">
         <v>1200</v>
       </c>
       <c r="M58" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="N58" s="3">
         <v>1300</v>
       </c>
       <c r="O58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P58" s="3">
         <v>15200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>12700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>10400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7900</v>
-      </c>
-      <c r="S58" s="3">
-        <v>4200</v>
       </c>
       <c r="T58" s="3">
         <v>4200</v>
       </c>
       <c r="U58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="V58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E59" s="3">
         <v>17900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E60" s="3">
         <v>24400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>30100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>17800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>30000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>26800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>26200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>24000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>17700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E61" s="3">
         <v>41400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>36100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>43700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>25500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E62" s="3">
         <v>56500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>50000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>51600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>53200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>56200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>3000</v>
       </c>
       <c r="K62" s="3">
         <v>3000</v>
       </c>
       <c r="L62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M62" s="3">
         <v>3100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3500</v>
-      </c>
-      <c r="P62" s="3">
-        <v>3600</v>
       </c>
       <c r="Q62" s="3">
         <v>3600</v>
@@ -3623,13 +3768,16 @@
         <v>3600</v>
       </c>
       <c r="T62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U62" s="3">
         <v>3500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>120400</v>
+      </c>
+      <c r="E66" s="3">
         <v>122900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>116800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>119800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>103200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>104600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>52800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>46500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>39800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>39100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>42400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>42900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>42000</v>
-      </c>
-      <c r="P66" s="3">
-        <v>39600</v>
       </c>
       <c r="Q66" s="3">
         <v>39600</v>
       </c>
       <c r="R66" s="3">
+        <v>39600</v>
+      </c>
+      <c r="S66" s="3">
         <v>38800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>34800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>34600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E72" s="3">
         <v>22200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>23000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>24000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>26500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>29200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>28600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>30000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>26900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>28400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>29400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>28800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>27000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>28500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>27800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>27300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>26800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>28000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E76" s="3">
         <v>35800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>36500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>37500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>40000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>42500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>41900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>43300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>39900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>41500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>42300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>42200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>39900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>41400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>40400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>39900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>39400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>40600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44198</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44107</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,31 +4820,32 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E83" s="3">
         <v>900</v>
       </c>
       <c r="F83" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G83" s="3">
         <v>1000</v>
       </c>
       <c r="H83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I83" s="3">
         <v>1200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1200</v>
       </c>
       <c r="K83" s="3">
         <v>1200</v>
@@ -4659,7 +4857,7 @@
         <v>1200</v>
       </c>
       <c r="N83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="O83" s="3">
         <v>1300</v>
@@ -4668,22 +4866,25 @@
         <v>1300</v>
       </c>
       <c r="Q83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R83" s="3">
         <v>900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>1100</v>
       </c>
       <c r="T83" s="3">
         <v>1100</v>
       </c>
       <c r="U83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V83" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5333,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-900</v>
@@ -5342,31 +5575,31 @@
         <v>-900</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="S96" s="3">
         <v>-900</v>
@@ -5377,8 +5610,11 @@
       <c r="U96" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>18200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-1600</v>
       </c>
       <c r="I100" s="3">
         <v>-1600</v>
       </c>
       <c r="J100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5672,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1800</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>4000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARKR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>ARKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44198</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44107</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E8" s="3">
         <v>25800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>34000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>43500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>41700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>44800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>35300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>40500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>40600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>44800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>35300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>39300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>39800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>41200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>34600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>38400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E9" s="3">
         <v>7800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11200</v>
-      </c>
-      <c r="T9" s="3">
-        <v>9800</v>
       </c>
       <c r="U9" s="3">
         <v>9800</v>
       </c>
       <c r="V9" s="3">
+        <v>9800</v>
+      </c>
+      <c r="W9" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E10" s="3">
         <v>18000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>15600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>24400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>32600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>30200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>30000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>29400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>32900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>25600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>29100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>29000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>30000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>24800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>28700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,44 +1105,47 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E14" s="3">
         <v>-4100</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>2900</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1145,39 +1165,42 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-1400</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E15" s="3">
         <v>1000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>900</v>
       </c>
       <c r="F15" s="3">
         <v>900</v>
       </c>
       <c r="G15" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H15" s="3">
         <v>1000</v>
       </c>
       <c r="I15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="3">
         <v>1200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1700</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1200</v>
       </c>
       <c r="L15" s="3">
         <v>1200</v>
@@ -1189,7 +1212,7 @@
         <v>1200</v>
       </c>
       <c r="O15" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="P15" s="3">
         <v>1300</v>
@@ -1198,22 +1221,25 @@
         <v>1300</v>
       </c>
       <c r="R15" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="S15" s="3">
         <v>1000</v>
       </c>
       <c r="T15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U15" s="3">
         <v>2100</v>
-      </c>
-      <c r="U15" s="3">
-        <v>1200</v>
       </c>
       <c r="V15" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E17" s="3">
         <v>23100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>35900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>41100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>43600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>40100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>35200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>40200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>39600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>41000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>35800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>38500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>37600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>38900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>34900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>35500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E18" s="3">
         <v>2700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1414,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1393,17 +1427,17 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1414,11 +1448,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1426,87 +1460,93 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
       </c>
       <c r="V20" s="3">
+        <v>100</v>
+      </c>
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E21" s="3">
         <v>3700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1517,25 +1557,25 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
         <v>500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>400</v>
       </c>
       <c r="K22" s="3">
         <v>400</v>
       </c>
       <c r="L22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M22" s="3">
         <v>300</v>
@@ -1550,149 +1590,158 @@
         <v>300</v>
       </c>
       <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
-      </c>
-      <c r="S22" s="3">
-        <v>200</v>
       </c>
       <c r="T22" s="3">
         <v>200</v>
       </c>
       <c r="U22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-3100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E26" s="3">
         <v>4300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>3700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>4200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1974,20 +2035,20 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-2600</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>1200</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2192,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2137,17 +2207,17 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2158,11 +2228,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2170,87 +2240,93 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
       </c>
       <c r="V32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>4200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>4200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44198</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44107</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E41" s="3">
         <v>11400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7300</v>
-      </c>
-      <c r="I41" s="3">
-        <v>7200</v>
       </c>
       <c r="J41" s="3">
         <v>7200</v>
       </c>
       <c r="K41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="L41" s="3">
         <v>5600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1000</v>
       </c>
-      <c r="S41" s="3" t="s">
+      <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2579,103 +2669,109 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
+      <c r="L42" s="3">
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
         <v>200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>200</v>
-      </c>
-      <c r="R42" s="3">
-        <v>400</v>
       </c>
       <c r="S42" s="3">
         <v>400</v>
       </c>
       <c r="T42" s="3">
+        <v>400</v>
+      </c>
+      <c r="U42" s="3">
         <v>100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E43" s="3">
         <v>3900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3500</v>
-      </c>
-      <c r="N43" s="3">
-        <v>3800</v>
       </c>
       <c r="O43" s="3">
         <v>3800</v>
       </c>
       <c r="P43" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Q43" s="3">
         <v>3900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4300</v>
-      </c>
-      <c r="U43" s="3">
-        <v>4200</v>
       </c>
       <c r="V43" s="3">
         <v>4200</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2683,31 +2779,31 @@
         <v>2200</v>
       </c>
       <c r="E44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F44" s="3">
         <v>2400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2000</v>
-      </c>
-      <c r="M44" s="3">
-        <v>2100</v>
       </c>
       <c r="N44" s="3">
         <v>2100</v>
@@ -2716,7 +2812,7 @@
         <v>2100</v>
       </c>
       <c r="P44" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="Q44" s="3">
         <v>2000</v>
@@ -2725,143 +2821,152 @@
         <v>2000</v>
       </c>
       <c r="S44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T44" s="3">
         <v>2100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E45" s="3">
         <v>6700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1600</v>
       </c>
       <c r="L45" s="3">
         <v>1600</v>
       </c>
       <c r="M45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N45" s="3">
         <v>2000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E46" s="3">
         <v>24100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>22900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>28900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>14300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>13200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2878,7 +2983,7 @@
         <v>6900</v>
       </c>
       <c r="H47" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="I47" s="3">
         <v>6800</v>
@@ -2887,7 +2992,7 @@
         <v>6800</v>
       </c>
       <c r="K47" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="L47" s="3">
         <v>7100</v>
@@ -2896,7 +3001,7 @@
         <v>7100</v>
       </c>
       <c r="N47" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="O47" s="3">
         <v>7000</v>
@@ -2917,86 +3022,92 @@
         <v>7000</v>
       </c>
       <c r="U47" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="V47" s="3">
         <v>6700</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E48" s="3">
         <v>96100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>97200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>91900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>94300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>96600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>99900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>47800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>44100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>44000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>44300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>45300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>46100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>46300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>46500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>45200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>44100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>37800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>36900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>22100</v>
+        <v>22000</v>
       </c>
       <c r="E49" s="3">
         <v>22100</v>
       </c>
       <c r="F49" s="3">
-        <v>19300</v>
+        <v>22100</v>
       </c>
       <c r="G49" s="3">
         <v>19300</v>
@@ -3005,7 +3116,7 @@
         <v>19300</v>
       </c>
       <c r="I49" s="3">
-        <v>19600</v>
+        <v>19300</v>
       </c>
       <c r="J49" s="3">
         <v>19600</v>
@@ -3014,13 +3125,13 @@
         <v>19600</v>
       </c>
       <c r="L49" s="3">
-        <v>12800</v>
+        <v>19600</v>
       </c>
       <c r="M49" s="3">
         <v>12800</v>
       </c>
       <c r="N49" s="3">
-        <v>13600</v>
+        <v>12800</v>
       </c>
       <c r="O49" s="3">
         <v>13600</v>
@@ -3041,13 +3152,16 @@
         <v>13600</v>
       </c>
       <c r="U49" s="3">
+        <v>13600</v>
+      </c>
+      <c r="V49" s="3">
         <v>12800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,46 +3287,49 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E52" s="3">
         <v>11600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5700</v>
-      </c>
-      <c r="O52" s="3">
-        <v>5400</v>
       </c>
       <c r="P52" s="3">
         <v>5400</v>
@@ -3218,22 +3338,25 @@
         <v>5400</v>
       </c>
       <c r="R52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="S52" s="3">
         <v>4200</v>
-      </c>
-      <c r="S52" s="3">
-        <v>5300</v>
       </c>
       <c r="T52" s="3">
         <v>5300</v>
       </c>
       <c r="U52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="V52" s="3">
         <v>5600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>162100</v>
+      </c>
+      <c r="E54" s="3">
         <v>160800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>158800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>153300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>157300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>143200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>147200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>94700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>89800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>79800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>80600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>84700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>85200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>81900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>81000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>80100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>78800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>74200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>75200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>68300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,84 +3534,88 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>4500</v>
       </c>
       <c r="M57" s="3">
         <v>4500</v>
       </c>
       <c r="N57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="O57" s="3">
         <v>5000</v>
-      </c>
-      <c r="O57" s="3">
-        <v>4600</v>
       </c>
       <c r="P57" s="3">
         <v>4600</v>
       </c>
       <c r="Q57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="R57" s="3">
         <v>5000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E58" s="3">
         <v>5100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2700</v>
       </c>
       <c r="H58" s="3">
         <v>2700</v>
@@ -3496,270 +3630,282 @@
         <v>2700</v>
       </c>
       <c r="L58" s="3">
-        <v>1200</v>
+        <v>2700</v>
       </c>
       <c r="M58" s="3">
         <v>1200</v>
       </c>
       <c r="N58" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="O58" s="3">
         <v>1300</v>
       </c>
       <c r="P58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q58" s="3">
         <v>15200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>12700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7900</v>
-      </c>
-      <c r="T58" s="3">
-        <v>4200</v>
       </c>
       <c r="U58" s="3">
         <v>4200</v>
       </c>
       <c r="V58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="W58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E59" s="3">
         <v>18900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E60" s="3">
         <v>27700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>30100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>24300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>30000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>26800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>26200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>24000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>19100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>17700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E61" s="3">
         <v>35600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>41400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>36100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>43700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>25500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>11100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E62" s="3">
         <v>56300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>56500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>50000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>51600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>53200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>56200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>3000</v>
       </c>
       <c r="L62" s="3">
         <v>3000</v>
       </c>
       <c r="M62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N62" s="3">
         <v>3100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>3600</v>
       </c>
       <c r="R62" s="3">
         <v>3600</v>
@@ -3771,13 +3917,16 @@
         <v>3600</v>
       </c>
       <c r="U62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="V62" s="3">
         <v>3500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>118600</v>
+      </c>
+      <c r="E66" s="3">
         <v>120400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>122900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>116800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>119800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>103200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>104600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>52800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>46500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>39800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>39100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>42400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>42900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>42000</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>39600</v>
       </c>
       <c r="R66" s="3">
         <v>39600</v>
       </c>
       <c r="S66" s="3">
+        <v>39600</v>
+      </c>
+      <c r="T66" s="3">
         <v>38800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>34800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>34600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E72" s="3">
         <v>26400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>22200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>23000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>24000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>26500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>29200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>28600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>30000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>26900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>28400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>29400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>28800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>27000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>28500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>27800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>27300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>26800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>28000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E76" s="3">
         <v>40500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>35800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>36500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>37500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>40000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>42500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>41900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>43300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>39900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>41500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>42300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>42200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>39900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>41400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>40400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>39900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>39400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>40600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44198</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44107</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>4200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,34 +5019,35 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>1000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>900</v>
       </c>
       <c r="F83" s="3">
         <v>900</v>
       </c>
       <c r="G83" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H83" s="3">
         <v>1000</v>
       </c>
       <c r="I83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J83" s="3">
         <v>1200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1200</v>
       </c>
       <c r="L83" s="3">
         <v>1200</v>
@@ -4860,7 +5059,7 @@
         <v>1200</v>
       </c>
       <c r="O83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="P83" s="3">
         <v>1300</v>
@@ -4869,22 +5068,25 @@
         <v>1300</v>
       </c>
       <c r="R83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S83" s="3">
         <v>900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>1100</v>
       </c>
       <c r="U83" s="3">
         <v>1100</v>
       </c>
       <c r="V83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W83" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E89" s="3">
         <v>1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5288,61 +5509,64 @@
         <v>-500</v>
       </c>
       <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5692,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5474,61 +5704,64 @@
         <v>-500</v>
       </c>
       <c r="E94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5569,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-900</v>
@@ -5578,31 +5812,31 @@
         <v>-900</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="T96" s="3">
         <v>-900</v>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>18200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-1600</v>
       </c>
       <c r="J100" s="3">
         <v>-1600</v>
       </c>
       <c r="K100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1800</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>4000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARKR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>ARKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,322 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44198</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44107</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>42800</v>
+      </c>
+      <c r="F8" s="3">
         <v>43000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>25800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>20300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>21800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>7200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>34000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>43500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>41700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>44800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>35300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>40500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>40600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>44800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>35300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>39300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>39800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>41200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>34600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>38400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F9" s="3">
         <v>12700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>7800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>5900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>6200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>9600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>10900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>11500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>11700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>9800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>10500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>11200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>11900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>9700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>10200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>10800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>11200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>9800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>9800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>30200</v>
+      </c>
+      <c r="F10" s="3">
         <v>30300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>18000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>14400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>15600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>5400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>24400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>32600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>30200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>33100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>25500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>30000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>29400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>32900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>25600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>29100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>29000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>30000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>24800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>28700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +1004,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1071,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,50 +1142,56 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F14" s="3">
         <v>-3200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-4100</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>2900</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1168,13 +1208,19 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-1400</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1182,31 +1228,31 @@
         <v>1100</v>
       </c>
       <c r="E15" s="3">
+        <v>600</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G15" s="3">
         <v>1000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>1000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>1000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1700</v>
       </c>
       <c r="L15" s="3">
         <v>1200</v>
       </c>
       <c r="M15" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="N15" s="3">
         <v>1200</v>
@@ -1215,31 +1261,37 @@
         <v>1200</v>
       </c>
       <c r="P15" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="Q15" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="R15" s="3">
         <v>1300</v>
       </c>
       <c r="S15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U15" s="3">
         <v>1000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>1000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>2100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>1200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1312,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>33900</v>
+      </c>
+      <c r="F17" s="3">
         <v>34700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>23100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>23600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>24400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>12800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>35900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>41100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>43600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>40100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>35200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>40200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>39600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>41000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>35800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>38500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>37600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>38900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>34900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>35500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F18" s="3">
         <v>8300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-5600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2400</v>
       </c>
       <c r="K18" s="3">
         <v>-1900</v>
       </c>
       <c r="L18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N18" s="3">
         <v>4700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>3800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>2300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>3000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,13 +1481,15 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1430,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1442,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1451,102 +1519,114 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F21" s="3">
         <v>9400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>3700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-4600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>3600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>5900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>5100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>2200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>3500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>4200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1560,28 +1640,28 @@
         <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>300</v>
       </c>
       <c r="O22" s="3">
         <v>300</v>
@@ -1593,7 +1673,7 @@
         <v>300</v>
       </c>
       <c r="R22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S22" s="3">
         <v>300</v>
@@ -1602,146 +1682,164 @@
         <v>200</v>
       </c>
       <c r="U22" s="3">
+        <v>300</v>
+      </c>
+      <c r="V22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
+        <v>200</v>
+      </c>
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F23" s="3">
         <v>8000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-5900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>3500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>2300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>3000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F24" s="3">
         <v>4700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-2900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-1300</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
       </c>
       <c r="M24" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N24" s="3">
+        <v>300</v>
+      </c>
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1903,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F26" s="3">
         <v>3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>4300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2800</v>
       </c>
       <c r="I26" s="3">
         <v>-1800</v>
       </c>
       <c r="J26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L26" s="3">
         <v>1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>3700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
-      </c>
-      <c r="R26" s="3">
-        <v>1700</v>
-      </c>
-      <c r="S26" s="3">
-        <v>1300</v>
       </c>
       <c r="T26" s="3">
         <v>1700</v>
       </c>
       <c r="U26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>2100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F27" s="3">
         <v>2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>4200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>3600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,31 +2116,37 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2038,23 +2160,23 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-2600</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>1200</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2065,8 +2187,14 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2258,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,13 +2329,19 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2210,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2222,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2231,102 +2371,114 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F33" s="3">
         <v>2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>4200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>2800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2542,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F35" s="3">
         <v>2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>4200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>2800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44198</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44107</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2720,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2747,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F41" s="3">
         <v>18300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>11400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>10800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>16900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>20700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>7300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>7200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="3">
-        <v>1000</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W41" s="3">
         <v>700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2672,309 +2852,339 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>300</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>400</v>
-      </c>
-      <c r="R42" s="3">
-        <v>200</v>
       </c>
       <c r="S42" s="3">
         <v>400</v>
       </c>
       <c r="T42" s="3">
+        <v>200</v>
+      </c>
+      <c r="U42" s="3">
         <v>400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
+        <v>400</v>
+      </c>
+      <c r="W42" s="3">
         <v>100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F43" s="3">
         <v>4400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>3900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>4100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>3900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>3700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>3800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>3900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>4300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>4200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F44" s="3">
         <v>2200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>2800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2000</v>
-      </c>
-      <c r="N44" s="3">
-        <v>2100</v>
-      </c>
-      <c r="O44" s="3">
-        <v>2100</v>
       </c>
       <c r="P44" s="3">
         <v>2100</v>
       </c>
       <c r="Q44" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="R44" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="S44" s="3">
         <v>2000</v>
       </c>
       <c r="T44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V44" s="3">
         <v>2100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>2500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>2200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F45" s="3">
         <v>6600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>6700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>6900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>2900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>2400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>2800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>2200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>34300</v>
+      </c>
+      <c r="F46" s="3">
         <v>31400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>24100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>22900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>26900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>28900</v>
-      </c>
-      <c r="I46" s="3">
-        <v>13700</v>
-      </c>
-      <c r="J46" s="3">
-        <v>14300</v>
       </c>
       <c r="K46" s="3">
         <v>13700</v>
       </c>
       <c r="L46" s="3">
+        <v>14300</v>
+      </c>
+      <c r="M46" s="3">
+        <v>13700</v>
+      </c>
+      <c r="N46" s="3">
         <v>13500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>10100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>10800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>13200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>13100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>9500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>8600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>10100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>8800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>10500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>13200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6900</v>
+        <v>6400</v>
       </c>
       <c r="E47" s="3">
-        <v>6900</v>
+        <v>6400</v>
       </c>
       <c r="F47" s="3">
         <v>6900</v>
@@ -2986,28 +3196,28 @@
         <v>6900</v>
       </c>
       <c r="I47" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="J47" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="K47" s="3">
         <v>6800</v>
       </c>
       <c r="L47" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="M47" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="N47" s="3">
         <v>7100</v>
       </c>
       <c r="O47" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="P47" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="Q47" s="3">
         <v>7000</v>
@@ -3025,78 +3235,90 @@
         <v>7000</v>
       </c>
       <c r="V47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="W47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="X47" s="3">
         <v>6700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>89900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>92500</v>
+      </c>
+      <c r="F48" s="3">
         <v>94000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>96100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>97200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>91900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>94300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>96600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>99900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>47800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>44100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>44000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>44300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>45300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>46100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>46300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>46500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>45200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>44100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>37800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>36900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3104,40 +3326,40 @@
         <v>22000</v>
       </c>
       <c r="E49" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>22000</v>
+      </c>
+      <c r="G49" s="3">
         <v>22100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>22100</v>
-      </c>
-      <c r="G49" s="3">
-        <v>19300</v>
-      </c>
-      <c r="H49" s="3">
-        <v>19300</v>
       </c>
       <c r="I49" s="3">
         <v>19300</v>
       </c>
       <c r="J49" s="3">
-        <v>19600</v>
+        <v>19300</v>
       </c>
       <c r="K49" s="3">
-        <v>19600</v>
+        <v>19300</v>
       </c>
       <c r="L49" s="3">
         <v>19600</v>
       </c>
       <c r="M49" s="3">
+        <v>19600</v>
+      </c>
+      <c r="N49" s="3">
+        <v>19600</v>
+      </c>
+      <c r="O49" s="3">
         <v>12800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>12800</v>
-      </c>
-      <c r="O49" s="3">
-        <v>13600</v>
-      </c>
-      <c r="P49" s="3">
-        <v>13600</v>
       </c>
       <c r="Q49" s="3">
         <v>13600</v>
@@ -3155,13 +3377,19 @@
         <v>13600</v>
       </c>
       <c r="V49" s="3">
+        <v>13600</v>
+      </c>
+      <c r="W49" s="3">
+        <v>13600</v>
+      </c>
+      <c r="X49" s="3">
         <v>12800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3453,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3524,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F52" s="3">
         <v>7800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>11600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>9700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>8300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>7900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>6700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>6600</v>
       </c>
       <c r="K52" s="3">
         <v>6700</v>
       </c>
       <c r="L52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="M52" s="3">
+        <v>6700</v>
+      </c>
+      <c r="N52" s="3">
         <v>5500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>5800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>5700</v>
-      </c>
-      <c r="P52" s="3">
-        <v>5400</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>5400</v>
       </c>
       <c r="R52" s="3">
         <v>5400</v>
       </c>
       <c r="S52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="T52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="U52" s="3">
         <v>4200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>5300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>5300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>5600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3666,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>158800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>161200</v>
+      </c>
+      <c r="F54" s="3">
         <v>162100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>160800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>158800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>153300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>157300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>143200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>147200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>94700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>89800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>79800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>80600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>84700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>85200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>81900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>81000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>80100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>78800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>74200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>75200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>68300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3768,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,93 +3795,101 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>4600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>5000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>4800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>4500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>4000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>3500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F58" s="3">
         <v>7400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>5100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>4100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>9000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2700</v>
       </c>
       <c r="J58" s="3">
         <v>2700</v>
@@ -3633,285 +3901,309 @@
         <v>2700</v>
       </c>
       <c r="M58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O58" s="3">
         <v>1200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>15200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>12700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>10400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>7900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>4200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>4200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F59" s="3">
         <v>21700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>18900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>17900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>18800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>18300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>16600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>17300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>11800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>11700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>9800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>9300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>11600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>11800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>10300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>9000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>11000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>11600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>10900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>10000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>31700</v>
+      </c>
+      <c r="F60" s="3">
         <v>33600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>27700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>24400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>30100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>23800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>23700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>24300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>18100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>17800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>15600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>15000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>17800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>17600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>30000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>26800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>26200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>24000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>19100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>17700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>25500</v>
+      </c>
+      <c r="F61" s="3">
         <v>29500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>35600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>41400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>36100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>43700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>25500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>23100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>23800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>24500</v>
-      </c>
-      <c r="M61" s="3">
-        <v>19900</v>
-      </c>
-      <c r="N61" s="3">
-        <v>19600</v>
       </c>
       <c r="O61" s="3">
         <v>19900</v>
       </c>
       <c r="P61" s="3">
+        <v>19600</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>19900</v>
+      </c>
+      <c r="R61" s="3">
         <v>20200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>6800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>7500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>7800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>9000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>10000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>11100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>52600</v>
+      </c>
+      <c r="F62" s="3">
         <v>54600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>56300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>56500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>50000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>51600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>53200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>56200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>10100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>3300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>3400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>3500</v>
-      </c>
-      <c r="R62" s="3">
-        <v>3600</v>
-      </c>
-      <c r="S62" s="3">
-        <v>3600</v>
       </c>
       <c r="T62" s="3">
         <v>3600</v>
@@ -3920,13 +4212,19 @@
         <v>3600</v>
       </c>
       <c r="V62" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="W62" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4288,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4359,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4430,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>106100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>110800</v>
+      </c>
+      <c r="F66" s="3">
         <v>118600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>120400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>122900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>116800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>119800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>103200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>104600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>52800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>46500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>39800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>39100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>42400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>42900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>42000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>39600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>39600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>38800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>34800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>34600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4532,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4599,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4670,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4741,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4812,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>35900</v>
+      </c>
+      <c r="F72" s="3">
         <v>29100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>26400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>22200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>23000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>24000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>26500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>29200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>28600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>30000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>26900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>28400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>29400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>28800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>27000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>28500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>27800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>27300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>26800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>28000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4954,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +5025,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +5096,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>50400</v>
+      </c>
+      <c r="F76" s="3">
         <v>43500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>40500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>35800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>36500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>37500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>40000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>42500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>41900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>43300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>39900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>41500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>42300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>42200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>39900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>41400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>40400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>39900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>39400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>40600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5238,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44198</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44107</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F81" s="3">
         <v>2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>4200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>2800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5416,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5029,31 +5427,31 @@
         <v>1100</v>
       </c>
       <c r="E83" s="3">
+        <v>600</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1700</v>
       </c>
       <c r="L83" s="3">
         <v>1200</v>
       </c>
       <c r="M83" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="N83" s="3">
         <v>1200</v>
@@ -5062,31 +5460,37 @@
         <v>1200</v>
       </c>
       <c r="P83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="Q83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="R83" s="3">
         <v>1300</v>
       </c>
       <c r="S83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U83" s="3">
         <v>900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>1000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>1100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>1100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5554,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5625,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5696,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5767,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5838,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F89" s="3">
         <v>8300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-4600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>3900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>4800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>5300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>5200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5940,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
         <v>-500</v>
       </c>
       <c r="F91" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="G91" s="3">
         <v>-500</v>
       </c>
       <c r="H91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-900</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-1000</v>
       </c>
       <c r="M91" s="3">
         <v>-900</v>
       </c>
       <c r="N91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-2500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-2100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-7300</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-1700</v>
       </c>
       <c r="W91" s="3">
         <v>-2800</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>-2800</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +6078,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +6149,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-2400</v>
       </c>
       <c r="G94" s="3">
         <v>-500</v>
       </c>
       <c r="H94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-7300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-3000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-2300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6251,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5806,43 +6274,43 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-900</v>
       </c>
       <c r="L96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="M96" s="3">
         <v>-900</v>
       </c>
       <c r="N96" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-900</v>
       </c>
       <c r="P96" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="Q96" s="3">
         <v>-900</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1700</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-900</v>
-      </c>
       <c r="U96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="V96" s="3">
         <v>-900</v>
@@ -5850,8 +6318,14 @@
       <c r="W96" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6389,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6460,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6531,85 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>18200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-2100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-2200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-2100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6673,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>900</v>
+      </c>
+      <c r="F102" s="3">
         <v>6900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-6100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>13400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1800</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>4000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-3800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-2600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARKR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>ARKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,322 +665,347 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44198</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44107</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>39600</v>
+      </c>
+      <c r="F8" s="3">
         <v>44000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>42800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>43000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>25800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>20300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>21800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>7200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>34000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>43500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>41700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>44800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>35300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>40500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>40600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>44800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>35300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>39300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>39800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>41200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>34600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>38400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F9" s="3">
         <v>12500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>12600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>12700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>7800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>5900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>6200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>9600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>10900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>11500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>11700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>9800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>10500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>11200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>11900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>9700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>10200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>10800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>11200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>9800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>9800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>27300</v>
+      </c>
+      <c r="F10" s="3">
         <v>31500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>30200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>30300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>18000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>14400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>15600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>24400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>32600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>30200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>33100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>25500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>30000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>29400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>32900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>25600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>29100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>29000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>30000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>24800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>28700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1006,8 +1031,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1077,8 +1104,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1148,56 +1181,62 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-3900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-3200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-4100</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>2900</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>1100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1214,51 +1253,57 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1100</v>
-      </c>
-      <c r="E15" s="3">
-        <v>600</v>
       </c>
       <c r="F15" s="3">
         <v>1100</v>
       </c>
       <c r="G15" s="3">
+        <v>600</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I15" s="3">
         <v>1000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>1000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1700</v>
       </c>
       <c r="N15" s="3">
         <v>1200</v>
       </c>
       <c r="O15" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="P15" s="3">
         <v>1200</v>
@@ -1267,31 +1312,37 @@
         <v>1200</v>
       </c>
       <c r="R15" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="S15" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="T15" s="3">
         <v>1300</v>
       </c>
       <c r="U15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W15" s="3">
         <v>1000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>1000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>2100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>1200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1314,150 +1365,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>38200</v>
+      </c>
+      <c r="F17" s="3">
         <v>41200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>33900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>34700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>23100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>23600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>24400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>12800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>35900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>41100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>43600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>40100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>35200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>40200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>39600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>41000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>35800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>38500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>37600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>38900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>34900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>35500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F18" s="3">
         <v>2800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>8900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>8300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>2700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="L18" s="3">
-        <v>2400</v>
       </c>
       <c r="M18" s="3">
         <v>-1900</v>
       </c>
       <c r="N18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P18" s="3">
         <v>4700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>3800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>2200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>2300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>3000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1483,20 +1548,22 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1504,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1516,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1525,108 +1592,120 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F21" s="3">
         <v>4100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>9600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>9400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>3700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-4600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>5900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>5100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>2200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>2800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>3500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>4200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1646,28 +1725,28 @@
         <v>300</v>
       </c>
       <c r="I22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
       </c>
       <c r="K22" s="3">
+        <v>400</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>300</v>
       </c>
       <c r="Q22" s="3">
         <v>300</v>
@@ -1679,7 +1758,7 @@
         <v>300</v>
       </c>
       <c r="T22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U22" s="3">
         <v>300</v>
@@ -1688,158 +1767,176 @@
         <v>200</v>
       </c>
       <c r="W22" s="3">
+        <v>300</v>
+      </c>
+      <c r="X22" s="3">
         <v>200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F23" s="3">
         <v>2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>8700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>8000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>4400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>3500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>2300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>3000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>4700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-2900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-400</v>
-      </c>
-      <c r="L24" s="3">
-        <v>300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-1300</v>
       </c>
       <c r="N24" s="3">
         <v>300</v>
       </c>
       <c r="O24" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="P24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-3100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1909,150 +2006,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>7400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>4300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-2800</v>
       </c>
       <c r="K26" s="3">
         <v>-1800</v>
       </c>
       <c r="L26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="N26" s="3">
         <v>1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>4100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>3700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>2900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
-      </c>
-      <c r="T26" s="3">
-        <v>1700</v>
-      </c>
-      <c r="U26" s="3">
-        <v>1300</v>
       </c>
       <c r="V26" s="3">
         <v>1700</v>
       </c>
       <c r="W26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>2100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>6800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>4200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>4000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>3600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>2700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>1700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2122,8 +2237,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2148,11 +2269,11 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2166,23 +2287,23 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-2600</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>1200</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2193,8 +2314,14 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,8 +2391,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2335,20 +2468,26 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2356,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2368,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2377,108 +2516,120 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>6800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>4200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>4000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>2700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>2800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>1700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2548,155 +2699,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>6800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>4200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>4000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>2700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>2800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>1700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44198</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44107</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2722,8 +2891,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2749,79 +2920,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F41" s="3">
         <v>20200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>19200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>18300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>11400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>10800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>16900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>20700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>7200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>7200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>600</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U41" s="3">
-        <v>1000</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y41" s="3">
         <v>700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>4200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2858,339 +3037,369 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>300</v>
-      </c>
-      <c r="S42" s="3">
-        <v>400</v>
-      </c>
-      <c r="T42" s="3">
-        <v>200</v>
       </c>
       <c r="U42" s="3">
         <v>400</v>
       </c>
       <c r="V42" s="3">
+        <v>200</v>
+      </c>
+      <c r="W42" s="3">
         <v>400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y42" s="3">
         <v>100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G43" s="3">
         <v>4500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>4400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>4100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>3800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>3800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>3900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>3700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>3800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>3900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>4300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>4200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F44" s="3">
         <v>4400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>3500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>2600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2000</v>
-      </c>
-      <c r="P44" s="3">
-        <v>2100</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>2100</v>
       </c>
       <c r="R44" s="3">
         <v>2100</v>
       </c>
       <c r="S44" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="T44" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="U44" s="3">
         <v>2000</v>
       </c>
       <c r="V44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X44" s="3">
         <v>2100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>2500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>2200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F45" s="3">
         <v>5800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>7100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>6600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>6700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>6900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>5300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>2700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>2600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>2900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>2400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>2800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>2200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>34800</v>
+        <v>39000</v>
       </c>
       <c r="E46" s="3">
         <v>34300</v>
       </c>
       <c r="F46" s="3">
+        <v>34800</v>
+      </c>
+      <c r="G46" s="3">
+        <v>34300</v>
+      </c>
+      <c r="H46" s="3">
         <v>31400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>24100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>22900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>26900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>28900</v>
-      </c>
-      <c r="K46" s="3">
-        <v>13700</v>
-      </c>
-      <c r="L46" s="3">
-        <v>14300</v>
       </c>
       <c r="M46" s="3">
         <v>13700</v>
       </c>
       <c r="N46" s="3">
+        <v>14300</v>
+      </c>
+      <c r="O46" s="3">
+        <v>13700</v>
+      </c>
+      <c r="P46" s="3">
         <v>13500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>10100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>10800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>13200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>13100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>9500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>8600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>10100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>8800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>10500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>13200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="E47" s="3">
         <v>6400</v>
       </c>
       <c r="F47" s="3">
-        <v>6900</v>
+        <v>6400</v>
       </c>
       <c r="G47" s="3">
-        <v>6900</v>
+        <v>6400</v>
       </c>
       <c r="H47" s="3">
         <v>6900</v>
@@ -3202,28 +3411,28 @@
         <v>6900</v>
       </c>
       <c r="K47" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="L47" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="M47" s="3">
         <v>6800</v>
       </c>
       <c r="N47" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="O47" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="P47" s="3">
         <v>7100</v>
       </c>
       <c r="Q47" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="R47" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="S47" s="3">
         <v>7000</v>
@@ -3241,84 +3450,96 @@
         <v>7000</v>
       </c>
       <c r="X47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Z47" s="3">
         <v>6700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>109800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>87700</v>
+      </c>
+      <c r="F48" s="3">
         <v>89900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>92500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>94000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>96100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>97200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>91900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>94300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>96600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>99900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>47800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>44100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>44000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>44300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>45300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>46100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>46300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>46500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>45200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>44100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>37800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>36900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3332,40 +3553,40 @@
         <v>22000</v>
       </c>
       <c r="G49" s="3">
+        <v>22000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I49" s="3">
         <v>22100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>22100</v>
-      </c>
-      <c r="I49" s="3">
-        <v>19300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>19300</v>
       </c>
       <c r="K49" s="3">
         <v>19300</v>
       </c>
       <c r="L49" s="3">
-        <v>19600</v>
+        <v>19300</v>
       </c>
       <c r="M49" s="3">
-        <v>19600</v>
+        <v>19300</v>
       </c>
       <c r="N49" s="3">
         <v>19600</v>
       </c>
       <c r="O49" s="3">
+        <v>19600</v>
+      </c>
+      <c r="P49" s="3">
+        <v>19600</v>
+      </c>
+      <c r="Q49" s="3">
         <v>12800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>12800</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>13600</v>
-      </c>
-      <c r="R49" s="3">
-        <v>13600</v>
       </c>
       <c r="S49" s="3">
         <v>13600</v>
@@ -3383,13 +3604,19 @@
         <v>13600</v>
       </c>
       <c r="X49" s="3">
+        <v>13600</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>13600</v>
+      </c>
+      <c r="Z49" s="3">
         <v>12800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3459,8 +3686,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3530,79 +3763,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F52" s="3">
         <v>5800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>6000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>7800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>11600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>9700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>8300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>7900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>6700</v>
-      </c>
-      <c r="L52" s="3">
-        <v>6600</v>
       </c>
       <c r="M52" s="3">
         <v>6700</v>
       </c>
       <c r="N52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="O52" s="3">
+        <v>6700</v>
+      </c>
+      <c r="P52" s="3">
         <v>5500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>5800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>5600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>5700</v>
-      </c>
-      <c r="R52" s="3">
-        <v>5400</v>
-      </c>
-      <c r="S52" s="3">
-        <v>5400</v>
       </c>
       <c r="T52" s="3">
         <v>5400</v>
       </c>
       <c r="U52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="V52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="W52" s="3">
         <v>4200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>5300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>5300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>5600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3672,79 +3917,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>182800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>156200</v>
+      </c>
+      <c r="F54" s="3">
         <v>158800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>161200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>162100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>160800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>158800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>153300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>157300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>143200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>147200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>94700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>89800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>79800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>80600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>84700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>85200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>81900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>81000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>80100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>78800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>74200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>75200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>68300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3770,8 +4027,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3797,105 +4056,113 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4800</v>
+        <v>5400</v>
       </c>
       <c r="E57" s="3">
         <v>4900</v>
       </c>
       <c r="F57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>5000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>4600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>4600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>5000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>4800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>4500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>4000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>3500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F58" s="3">
         <v>6800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>7000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>7400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>5100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>9000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2700</v>
       </c>
       <c r="L58" s="3">
         <v>2700</v>
@@ -3907,309 +4174,333 @@
         <v>2700</v>
       </c>
       <c r="O58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>15200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>12700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>10400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>7900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>4200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>4200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19500</v>
+        <v>21400</v>
       </c>
       <c r="E59" s="3">
         <v>19800</v>
       </c>
       <c r="F59" s="3">
+        <v>19500</v>
+      </c>
+      <c r="G59" s="3">
+        <v>19800</v>
+      </c>
+      <c r="H59" s="3">
         <v>21700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>18900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>17900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>18800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>18300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>16600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>17300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>11800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>11700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>9800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>9300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>11600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>11800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>10300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>9000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>11000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>11600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>10900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>10000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>30500</v>
+      </c>
+      <c r="F60" s="3">
         <v>31100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>31700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>33600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>27700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>24400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>30100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>23800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>23700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>24300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>18100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>17800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>15600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>15000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>17800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>17600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>30000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>26800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>26200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>24000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>19100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>17700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>22100</v>
+      </c>
+      <c r="F61" s="3">
         <v>23800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>25500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>29500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>35600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>41400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>36100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>43700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>25500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>23100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>23800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>24500</v>
-      </c>
-      <c r="O61" s="3">
-        <v>19900</v>
-      </c>
-      <c r="P61" s="3">
-        <v>19600</v>
       </c>
       <c r="Q61" s="3">
         <v>19900</v>
       </c>
       <c r="R61" s="3">
+        <v>19600</v>
+      </c>
+      <c r="S61" s="3">
+        <v>19900</v>
+      </c>
+      <c r="T61" s="3">
         <v>20200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>6800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>7500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>7800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>9000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>10000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>11100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>49400</v>
+      </c>
+      <c r="F62" s="3">
         <v>50500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>52600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>54600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>56300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>56500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>50000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>51600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>53200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>56200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>10100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>3000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>3100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>3300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>3400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>3500</v>
-      </c>
-      <c r="T62" s="3">
-        <v>3600</v>
-      </c>
-      <c r="U62" s="3">
-        <v>3600</v>
       </c>
       <c r="V62" s="3">
         <v>3600</v>
@@ -4218,13 +4509,19 @@
         <v>3600</v>
       </c>
       <c r="X62" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="Y62" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4294,8 +4591,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4365,8 +4668,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4436,79 +4745,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>123400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>102300</v>
+      </c>
+      <c r="F66" s="3">
         <v>106100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>110800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>118600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>120400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>122900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>116800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>119800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>103200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>104600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>52800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>46500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>39800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>39100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>42400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>42900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>42000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>39600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>39600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>38800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>34800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>34600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4534,8 +4855,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4605,8 +4928,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4676,8 +5005,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4747,8 +5082,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4818,79 +5159,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>39100</v>
+      </c>
+      <c r="F72" s="3">
         <v>38100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>35900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>29100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>26400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>22200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>23000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>24000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>26500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>29200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>28600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>30000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>26900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>28400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>29400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>28800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>27000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>28500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>27800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>27300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>26800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>28000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4960,8 +5313,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5031,8 +5390,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5102,79 +5467,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>53800</v>
+      </c>
+      <c r="F76" s="3">
         <v>52700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>50400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>43500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>40500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>35800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>36500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>37500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>40000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>42500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>41900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>43300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>39900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>41500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>42300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>42200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>39900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>41400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>40400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>39900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>39400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>40600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5244,155 +5621,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44198</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44107</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>6800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>4200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>4000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>2700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>2800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>1700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5418,46 +5813,48 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1100</v>
-      </c>
-      <c r="E83" s="3">
-        <v>600</v>
       </c>
       <c r="F83" s="3">
         <v>1100</v>
       </c>
       <c r="G83" s="3">
+        <v>600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1700</v>
       </c>
       <c r="N83" s="3">
         <v>1200</v>
       </c>
       <c r="O83" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="P83" s="3">
         <v>1200</v>
@@ -5466,31 +5863,37 @@
         <v>1200</v>
       </c>
       <c r="R83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="S83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="T83" s="3">
         <v>1300</v>
       </c>
       <c r="U83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W83" s="3">
         <v>900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>1000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>1100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>1100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5560,8 +5963,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5631,8 +6040,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5702,8 +6117,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5773,8 +6194,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5844,79 +6271,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F89" s="3">
         <v>3900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>2600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>8300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>4800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>2000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>5300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>2000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>5200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>1800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5942,79 +6381,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-500</v>
       </c>
       <c r="G91" s="3">
         <v>-500</v>
       </c>
       <c r="H91" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="I91" s="3">
         <v>-500</v>
       </c>
       <c r="J91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-900</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-1000</v>
       </c>
       <c r="O91" s="3">
         <v>-900</v>
       </c>
       <c r="P91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-2500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-2100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-7300</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-1700</v>
       </c>
       <c r="Y91" s="3">
         <v>-2800</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>-2800</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6084,8 +6531,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6155,79 +6608,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-500</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-2400</v>
       </c>
       <c r="I94" s="3">
         <v>-500</v>
       </c>
       <c r="J94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-2500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-2100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-7300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-3000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6253,8 +6718,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6280,43 +6747,43 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-900</v>
       </c>
       <c r="N96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="O96" s="3">
         <v>-900</v>
       </c>
       <c r="P96" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-900</v>
       </c>
       <c r="R96" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="S96" s="3">
         <v>-900</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1700</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-900</v>
-      </c>
       <c r="W96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="X96" s="3">
         <v>-900</v>
@@ -6324,8 +6791,14 @@
       <c r="Y96" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6395,8 +6868,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6466,8 +6945,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6537,79 +7022,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>18200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>1600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-2200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6679,75 +7176,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>6900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-6100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-3800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>13400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>4000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-1300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>1100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-3800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARKR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>ARKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,347 +665,373 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44198</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44107</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>46900</v>
+      </c>
+      <c r="F8" s="3">
         <v>53200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>39600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>44000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>42800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>43000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>25800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>20300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>21800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>34000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>43500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>41700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>44800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>35300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>40500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>40600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>44800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>35300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>39300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>39800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>41200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>34600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>38400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F9" s="3">
         <v>14700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>12300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>12500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>12600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>12700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>7800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>5900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>6200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>9600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>10900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>11500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>11700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>9800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>10500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>11200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>11900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>9700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>10200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>10800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>11200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>9800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>9800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>33900</v>
+      </c>
+      <c r="F10" s="3">
         <v>38500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>27300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>31500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>30200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>30300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>18000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>14400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>15600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>5400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>24400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>32600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>30200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>33100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>25500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>30000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>29400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>32900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>25600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>29100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>29000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>30000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>24800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>28700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,8 +1059,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1110,8 +1138,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,62 +1221,68 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-1100</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-3900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-3200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-4100</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2900</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>1100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1259,13 +1299,19 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1276,40 +1322,40 @@
         <v>1100</v>
       </c>
       <c r="F15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="3">
         <v>1100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>600</v>
       </c>
       <c r="H15" s="3">
         <v>1100</v>
       </c>
       <c r="I15" s="3">
+        <v>600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K15" s="3">
         <v>1000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>1000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>1000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O15" s="3">
-        <v>1700</v>
       </c>
       <c r="P15" s="3">
         <v>1200</v>
       </c>
       <c r="Q15" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="R15" s="3">
         <v>1200</v>
@@ -1318,31 +1364,37 @@
         <v>1200</v>
       </c>
       <c r="T15" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="U15" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="V15" s="3">
         <v>1300</v>
       </c>
       <c r="W15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y15" s="3">
         <v>1000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>1000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>2100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>1200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1419,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45500</v>
+      </c>
+      <c r="F17" s="3">
         <v>46500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>38200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>41200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>33900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>34700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>23100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>23600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>24400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>12800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>35900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>41100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>43600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>40100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>35200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>40200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>39600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>41000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>35800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>38500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>37600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>38900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>34900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>35500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6700</v>
+        <v>2400</v>
       </c>
       <c r="E18" s="3">
         <v>1400</v>
       </c>
       <c r="F18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H18" s="3">
         <v>2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>8900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>8300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>2700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="N18" s="3">
-        <v>2400</v>
       </c>
       <c r="O18" s="3">
         <v>-1900</v>
       </c>
       <c r="P18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="R18" s="3">
         <v>4700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>3800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>2200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>2300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>3000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,8 +1616,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1562,14 +1630,14 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1577,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1589,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1598,122 +1666,134 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7800</v>
+        <v>3600</v>
       </c>
       <c r="E21" s="3">
         <v>2600</v>
       </c>
       <c r="F21" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H21" s="3">
         <v>4100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>9600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>9400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>3700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-4600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>3600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>5900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>5100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>2200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>2800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>3500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>4200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
@@ -1731,28 +1811,28 @@
         <v>300</v>
       </c>
       <c r="K22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
       </c>
       <c r="M22" s="3">
+        <v>400</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>300</v>
-      </c>
-      <c r="R22" s="3">
-        <v>300</v>
       </c>
       <c r="S22" s="3">
         <v>300</v>
@@ -1764,7 +1844,7 @@
         <v>300</v>
       </c>
       <c r="V22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W22" s="3">
         <v>300</v>
@@ -1773,170 +1853,188 @@
         <v>200</v>
       </c>
       <c r="Y22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z22" s="3">
         <v>200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB22" s="3">
         <v>100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6500</v>
+        <v>2100</v>
       </c>
       <c r="E23" s="3">
         <v>1200</v>
       </c>
       <c r="F23" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H23" s="3">
         <v>2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>8700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>8000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-5900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>4400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>3500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>1600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>2300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>3000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>4700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-3100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-1300</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
       </c>
       <c r="Q24" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R24" s="3">
+        <v>300</v>
+      </c>
+      <c r="S24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-3100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-1100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2110,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>5600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>7400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-2800</v>
       </c>
       <c r="M26" s="3">
         <v>-1800</v>
       </c>
       <c r="N26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P26" s="3">
         <v>1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>4100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>3700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>2900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
-      </c>
-      <c r="V26" s="3">
-        <v>1700</v>
-      </c>
-      <c r="W26" s="3">
-        <v>1300</v>
       </c>
       <c r="X26" s="3">
         <v>1700</v>
       </c>
       <c r="Y26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>2100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>800</v>
+      </c>
+      <c r="F27" s="3">
         <v>5300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>6800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>4200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>4000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>3600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>2700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>1400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>1700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2359,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2275,11 +2397,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2293,23 +2415,23 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-2600</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>1200</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2320,8 +2442,14 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2525,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,8 +2608,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2486,14 +2626,14 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2501,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2513,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2522,114 +2662,126 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>800</v>
+      </c>
+      <c r="F33" s="3">
         <v>5300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>6800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>4200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>4000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>2700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>2800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>1300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>1400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>1700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2857,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>800</v>
+      </c>
+      <c r="F35" s="3">
         <v>5300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>6800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>4200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>4000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>2700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>2800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>1300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>1400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>1700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44198</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44107</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +3063,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,108 +3094,116 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>23400</v>
+      </c>
+      <c r="F41" s="3">
         <v>26600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>18500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>20200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>19200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>18300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>11400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>10800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>16900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>20700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>7300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>7200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>7200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>600</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W41" s="3">
-        <v>1000</v>
       </c>
       <c r="X41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA41" s="3">
         <v>700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>4200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>5000</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3043,349 +3223,379 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>300</v>
-      </c>
-      <c r="U42" s="3">
-        <v>400</v>
-      </c>
-      <c r="V42" s="3">
-        <v>200</v>
       </c>
       <c r="W42" s="3">
         <v>400</v>
       </c>
       <c r="X42" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y42" s="3">
         <v>400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA42" s="3">
         <v>100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F43" s="3">
         <v>5000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>4300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>4300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>4500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>4400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>4100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>3600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>3500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>3800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>3800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>3900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>3700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>3800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>3900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>4300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>4200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F44" s="3">
         <v>4000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>4200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>4400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>3500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>2200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>2000</v>
-      </c>
-      <c r="R44" s="3">
-        <v>2100</v>
-      </c>
-      <c r="S44" s="3">
-        <v>2100</v>
       </c>
       <c r="T44" s="3">
         <v>2100</v>
       </c>
       <c r="U44" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="V44" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="W44" s="3">
         <v>2000</v>
       </c>
       <c r="X44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Z44" s="3">
         <v>2100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>2500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>2200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F45" s="3">
         <v>3400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>7200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>5800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>7100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>6600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>6700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>6900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>2300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>2100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>2700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>2600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>2900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>2400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>2800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>2200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>39100</v>
+      </c>
+      <c r="F46" s="3">
         <v>39000</v>
-      </c>
-      <c r="E46" s="3">
-        <v>34300</v>
-      </c>
-      <c r="F46" s="3">
-        <v>34800</v>
       </c>
       <c r="G46" s="3">
         <v>34300</v>
       </c>
       <c r="H46" s="3">
+        <v>34800</v>
+      </c>
+      <c r="I46" s="3">
+        <v>34300</v>
+      </c>
+      <c r="J46" s="3">
         <v>31400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>24100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>22900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>26900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>28900</v>
-      </c>
-      <c r="M46" s="3">
-        <v>13700</v>
-      </c>
-      <c r="N46" s="3">
-        <v>14300</v>
       </c>
       <c r="O46" s="3">
         <v>13700</v>
       </c>
       <c r="P46" s="3">
+        <v>14300</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>13700</v>
+      </c>
+      <c r="R46" s="3">
         <v>13500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>10100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>10800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>13200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>13100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>9500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>8600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>10100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>8800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>10500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>13200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3393,19 +3603,19 @@
         <v>6500</v>
       </c>
       <c r="E47" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="F47" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="G47" s="3">
         <v>6400</v>
       </c>
       <c r="H47" s="3">
-        <v>6900</v>
+        <v>6400</v>
       </c>
       <c r="I47" s="3">
-        <v>6900</v>
+        <v>6400</v>
       </c>
       <c r="J47" s="3">
         <v>6900</v>
@@ -3417,28 +3627,28 @@
         <v>6900</v>
       </c>
       <c r="M47" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="N47" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="O47" s="3">
         <v>6800</v>
       </c>
       <c r="P47" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="Q47" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="R47" s="3">
         <v>7100</v>
       </c>
       <c r="S47" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="T47" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="U47" s="3">
         <v>7000</v>
@@ -3456,98 +3666,110 @@
         <v>7000</v>
       </c>
       <c r="Z47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="AB47" s="3">
         <v>6700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>134200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>136400</v>
+      </c>
+      <c r="F48" s="3">
         <v>109800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>87700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>89900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>92500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>94000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>96100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>97200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>91900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>94300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>96600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>99900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>47800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>44100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>44000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>44300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>45300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>46100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>46300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>46500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>45200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>44100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>37800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>36900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>22000</v>
+        <v>21900</v>
       </c>
       <c r="E49" s="3">
-        <v>22000</v>
+        <v>21900</v>
       </c>
       <c r="F49" s="3">
         <v>22000</v>
@@ -3559,40 +3781,40 @@
         <v>22000</v>
       </c>
       <c r="I49" s="3">
+        <v>22000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K49" s="3">
         <v>22100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>22100</v>
-      </c>
-      <c r="K49" s="3">
-        <v>19300</v>
-      </c>
-      <c r="L49" s="3">
-        <v>19300</v>
       </c>
       <c r="M49" s="3">
         <v>19300</v>
       </c>
       <c r="N49" s="3">
-        <v>19600</v>
+        <v>19300</v>
       </c>
       <c r="O49" s="3">
-        <v>19600</v>
+        <v>19300</v>
       </c>
       <c r="P49" s="3">
         <v>19600</v>
       </c>
       <c r="Q49" s="3">
+        <v>19600</v>
+      </c>
+      <c r="R49" s="3">
+        <v>19600</v>
+      </c>
+      <c r="S49" s="3">
         <v>12800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>12800</v>
-      </c>
-      <c r="S49" s="3">
-        <v>13600</v>
-      </c>
-      <c r="T49" s="3">
-        <v>13600</v>
       </c>
       <c r="U49" s="3">
         <v>13600</v>
@@ -3610,13 +3832,19 @@
         <v>13600</v>
       </c>
       <c r="Z49" s="3">
+        <v>13600</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>13600</v>
+      </c>
+      <c r="AB49" s="3">
         <v>12800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3920,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,8 +4003,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3778,76 +4018,82 @@
         <v>5600</v>
       </c>
       <c r="E52" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F52" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G52" s="3">
         <v>5700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>5800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>6000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>7800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>11600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>9700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>8300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>7900</v>
-      </c>
-      <c r="M52" s="3">
-        <v>6700</v>
-      </c>
-      <c r="N52" s="3">
-        <v>6600</v>
       </c>
       <c r="O52" s="3">
         <v>6700</v>
       </c>
       <c r="P52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>6700</v>
+      </c>
+      <c r="R52" s="3">
         <v>5500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>5800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>5600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>5700</v>
-      </c>
-      <c r="T52" s="3">
-        <v>5400</v>
-      </c>
-      <c r="U52" s="3">
-        <v>5400</v>
       </c>
       <c r="V52" s="3">
         <v>5400</v>
       </c>
       <c r="W52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="X52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Y52" s="3">
         <v>4200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>5300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>5300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>5600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4169,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>203600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>209500</v>
+      </c>
+      <c r="F54" s="3">
         <v>182800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>156200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>158800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>161200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>162100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>160800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>158800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>153300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>157300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>143200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>147200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>94700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>89800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>79800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>80600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>84700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>85200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>81900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>81000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>80100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>78800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>74200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>75200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>68300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4287,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,117 +4318,125 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F57" s="3">
         <v>5400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>4900</v>
-      </c>
-      <c r="F57" s="3">
-        <v>4800</v>
       </c>
       <c r="G57" s="3">
         <v>4900</v>
       </c>
       <c r="H57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J57" s="3">
         <v>4500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>4500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>4500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>5000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>4600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>4600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>5000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>4800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>4500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>4000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>3500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F58" s="3">
         <v>6700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>5800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>6800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>7000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>7400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>5100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>9000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>2700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>2700</v>
       </c>
       <c r="N58" s="3">
         <v>2700</v>
@@ -4180,333 +4448,357 @@
         <v>2700</v>
       </c>
       <c r="Q58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S58" s="3">
         <v>1200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>15200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>12700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>10400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>7900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>4200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>4200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>23800</v>
+      </c>
+      <c r="F59" s="3">
         <v>21400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>19800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>19500</v>
       </c>
       <c r="G59" s="3">
         <v>19800</v>
       </c>
       <c r="H59" s="3">
+        <v>19500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>19800</v>
+      </c>
+      <c r="J59" s="3">
         <v>21700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>18900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>17900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>18800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>18300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>16600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>17300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>11800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>11700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>9800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>9300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>11600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>11800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>10300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>9000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>11000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>11600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>10900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>10000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>34900</v>
+      </c>
+      <c r="F60" s="3">
         <v>33500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>30500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>31100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>31700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>33600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>27700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>24400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>30100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>23800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>23700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>24300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>18100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>17800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>15600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>15000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>17800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>17600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>30000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>26800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>26200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>24000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>19100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>17700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F61" s="3">
         <v>18200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>22100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>23800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>25500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>29500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>35600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>41400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>36100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>43700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>25500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>23100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>23800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>24500</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>19900</v>
-      </c>
-      <c r="R61" s="3">
-        <v>19600</v>
       </c>
       <c r="S61" s="3">
         <v>19900</v>
       </c>
       <c r="T61" s="3">
+        <v>19600</v>
+      </c>
+      <c r="U61" s="3">
+        <v>19900</v>
+      </c>
+      <c r="V61" s="3">
         <v>20200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>6800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>7500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>7800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>9000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>10000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>11100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>95400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>97400</v>
+      </c>
+      <c r="F62" s="3">
         <v>71600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>49400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>50500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>52600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>54600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>56300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>56500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>50000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>51600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>53200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>56200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>10100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>3000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>3000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>3100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>3300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>3400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>3500</v>
-      </c>
-      <c r="V62" s="3">
-        <v>3600</v>
-      </c>
-      <c r="W62" s="3">
-        <v>3600</v>
       </c>
       <c r="X62" s="3">
         <v>3600</v>
@@ -4515,13 +4807,19 @@
         <v>3600</v>
       </c>
       <c r="Z62" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="AA62" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4895,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4978,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +5061,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>142500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>149700</v>
+      </c>
+      <c r="F66" s="3">
         <v>123400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>102300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>106100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>110800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>118600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>120400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>122900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>116800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>119800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>103200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>104600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>52800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>46500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>39800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>39100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>42400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>42900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>42000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>39600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>39600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>38800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>34800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>34600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5179,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5258,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5341,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5424,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5507,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>44300</v>
+      </c>
+      <c r="F72" s="3">
         <v>44000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>39100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>38100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>35900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>29100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>26400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>22200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>23000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>24000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>26500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>29200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>28600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>30000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>26900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>28400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>29400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>28800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>27000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>28500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>27800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>27300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>26800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>28000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5673,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5756,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5839,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>59800</v>
+      </c>
+      <c r="F76" s="3">
         <v>59300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>53800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>52700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>50400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>43500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>40500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>35800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>36500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>37500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>40000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>42500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>41900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>43300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>39900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>41500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>42300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>42200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>39900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>41400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>40400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>39900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>39400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>40600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +6005,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44198</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44107</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>800</v>
+      </c>
+      <c r="F81" s="3">
         <v>5300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>6800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>4200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>4000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>2700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>2800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>1300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>1400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>1700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,8 +6211,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5827,40 +6225,40 @@
         <v>1100</v>
       </c>
       <c r="F83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G83" s="3">
         <v>1100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>600</v>
       </c>
       <c r="H83" s="3">
         <v>1100</v>
       </c>
       <c r="I83" s="3">
+        <v>600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>1700</v>
       </c>
       <c r="P83" s="3">
         <v>1200</v>
       </c>
       <c r="Q83" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="R83" s="3">
         <v>1200</v>
@@ -5869,31 +6267,37 @@
         <v>1200</v>
       </c>
       <c r="T83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="U83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="V83" s="3">
         <v>1300</v>
       </c>
       <c r="W83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y83" s="3">
         <v>900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>1000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>1100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>1100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6373,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6456,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6539,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6622,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6705,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F89" s="3">
         <v>10900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>3900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>2600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>8300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>2500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>3900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>4800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>5300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>2000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>5200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>1400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>1800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,85 +6823,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-500</v>
       </c>
       <c r="I91" s="3">
         <v>-500</v>
       </c>
       <c r="J91" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K91" s="3">
         <v>-500</v>
       </c>
       <c r="L91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-900</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q91" s="3">
         <v>-900</v>
       </c>
       <c r="R91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-1000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-2500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-2100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-7300</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-1700</v>
       </c>
       <c r="AA91" s="3">
         <v>-2800</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>-2800</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6985,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +7068,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-500</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-2400</v>
       </c>
       <c r="K94" s="3">
         <v>-500</v>
       </c>
       <c r="L94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-2500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-2100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-7300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,16 +7186,18 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -6753,43 +7221,43 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-900</v>
       </c>
       <c r="P96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="Q96" s="3">
         <v>-900</v>
       </c>
       <c r="R96" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="S96" s="3">
         <v>-900</v>
       </c>
       <c r="T96" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="U96" s="3">
         <v>-900</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1700</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-900</v>
-      </c>
       <c r="Y96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="Z96" s="3">
         <v>-900</v>
@@ -6797,8 +7265,14 @@
       <c r="AA96" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7348,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7431,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,85 +7514,97 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-2100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>18200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-2100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>1100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>1600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,81 +7680,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F102" s="3">
         <v>8100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>6900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-6100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>13400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>2700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1800</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>4000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>1100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARKR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>ARKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,373 +665,386 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44198</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44107</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E8" s="3">
         <v>47400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>46900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>53200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>39600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>44000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>42800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>43000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>25800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>34000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>43500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>41700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>44800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>35300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>40500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>40600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>44800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>35300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>39300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>39800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>41200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>34600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>38400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E9" s="3">
         <v>12400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>9700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>10200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>10800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>11200</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>9800</v>
       </c>
       <c r="AB9" s="3">
         <v>9800</v>
       </c>
       <c r="AC9" s="3">
+        <v>9800</v>
+      </c>
+      <c r="AD9" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E10" s="3">
         <v>35000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>33900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>38500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>27300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>31500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>30200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>30300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>15600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>32600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>30200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>33100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>25500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>30000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>29400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>32900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>25600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>29100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>29000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>30000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>24800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>28700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1061,8 +1074,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1144,8 +1158,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1227,65 +1244,68 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1100</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-3900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-3200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-4100</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>2900</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>1100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1305,60 +1325,63 @@
         <v>0</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E15" s="3">
         <v>1000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1100</v>
       </c>
       <c r="H15" s="3">
         <v>1100</v>
       </c>
       <c r="I15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J15" s="3">
         <v>600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>900</v>
       </c>
       <c r="M15" s="3">
         <v>900</v>
       </c>
       <c r="N15" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="O15" s="3">
         <v>1000</v>
       </c>
       <c r="P15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>1200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1700</v>
-      </c>
-      <c r="R15" s="3">
-        <v>1200</v>
       </c>
       <c r="S15" s="3">
         <v>1200</v>
@@ -1370,7 +1393,7 @@
         <v>1200</v>
       </c>
       <c r="V15" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="W15" s="3">
         <v>1300</v>
@@ -1379,22 +1402,25 @@
         <v>1300</v>
       </c>
       <c r="Y15" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="Z15" s="3">
         <v>1000</v>
       </c>
       <c r="AA15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB15" s="3">
         <v>2100</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>1200</v>
       </c>
       <c r="AC15" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1421,174 +1447,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E17" s="3">
         <v>45000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>45500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>46500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>38200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>41200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>33900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>35900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>41100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>43600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>40100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>35200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>40200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>39600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>41000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>35800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>38500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>37600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>38900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>34900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>35500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>3000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1618,13 +1651,14 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
@@ -1636,11 +1670,11 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1651,17 +1685,17 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1672,11 +1706,11 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1684,119 +1718,125 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>200</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>100</v>
       </c>
       <c r="AB20" s="3">
         <v>100</v>
       </c>
       <c r="AC20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E21" s="3">
         <v>3600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>4200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
       </c>
       <c r="F22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
@@ -1817,25 +1857,25 @@
         <v>300</v>
       </c>
       <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>300</v>
       </c>
       <c r="O22" s="3">
         <v>300</v>
       </c>
       <c r="P22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>500</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>400</v>
       </c>
       <c r="R22" s="3">
         <v>400</v>
       </c>
       <c r="S22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T22" s="3">
         <v>300</v>
@@ -1850,191 +1890,200 @@
         <v>300</v>
       </c>
       <c r="X22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y22" s="3">
         <v>200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>300</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>200</v>
       </c>
       <c r="AA22" s="3">
         <v>200</v>
       </c>
       <c r="AB22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-3100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2116,174 +2165,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>3700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2365,8 +2423,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2403,8 +2464,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2421,20 +2482,20 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-2600</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>1200</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2448,8 +2509,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2531,8 +2595,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2614,13 +2681,16 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
@@ -2632,11 +2702,11 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2647,17 +2717,17 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2668,11 +2738,11 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2680,108 +2750,114 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-200</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>-100</v>
       </c>
       <c r="AB32" s="3">
         <v>-100</v>
       </c>
       <c r="AC32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2863,179 +2939,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44198</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44107</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3065,8 +3150,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3096,102 +3182,106 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E41" s="3">
         <v>19400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>26600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>20700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7300</v>
-      </c>
-      <c r="P41" s="3">
-        <v>7200</v>
       </c>
       <c r="Q41" s="3">
         <v>7200</v>
       </c>
       <c r="R41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="S41" s="3">
         <v>5600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>600</v>
       </c>
-      <c r="X41" s="3" t="s">
+      <c r="Y41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1000</v>
       </c>
-      <c r="Z41" s="3" t="s">
+      <c r="AA41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
         <v>5000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
+      <c r="F42" s="3">
+        <v>5000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -3205,8 +3295,8 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -3229,177 +3319,183 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
+      <c r="S42" s="3">
+        <v>0</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V42" s="3">
         <v>200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>200</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>400</v>
       </c>
       <c r="Z42" s="3">
         <v>400</v>
       </c>
       <c r="AA42" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB42" s="3">
         <v>100</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>500</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E43" s="3">
         <v>4600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>4300</v>
       </c>
       <c r="H43" s="3">
         <v>4300</v>
       </c>
       <c r="I43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J43" s="3">
         <v>4500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3500</v>
-      </c>
-      <c r="U43" s="3">
-        <v>3800</v>
       </c>
       <c r="V43" s="3">
         <v>3800</v>
       </c>
       <c r="W43" s="3">
+        <v>3800</v>
+      </c>
+      <c r="X43" s="3">
         <v>3900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4300</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>4200</v>
       </c>
       <c r="AC43" s="3">
         <v>4200</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E44" s="3">
         <v>3500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>2200</v>
       </c>
       <c r="K44" s="3">
         <v>2200</v>
       </c>
       <c r="L44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M44" s="3">
         <v>2400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2000</v>
-      </c>
-      <c r="T44" s="3">
-        <v>2100</v>
       </c>
       <c r="U44" s="3">
         <v>2100</v>
@@ -3408,7 +3504,7 @@
         <v>2100</v>
       </c>
       <c r="W44" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="X44" s="3">
         <v>2000</v>
@@ -3417,185 +3513,194 @@
         <v>2000</v>
       </c>
       <c r="Z44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AA44" s="3">
         <v>2100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1300</v>
-      </c>
-      <c r="R45" s="3">
-        <v>1600</v>
       </c>
       <c r="S45" s="3">
         <v>1600</v>
       </c>
       <c r="T45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U45" s="3">
         <v>2000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E46" s="3">
         <v>35400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>39100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>39000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>34300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>34800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>34300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>31400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>28900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>13200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>13100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>10100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>10500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>13200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3609,7 +3714,7 @@
         <v>6500</v>
       </c>
       <c r="G47" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="H47" s="3">
         <v>6400</v>
@@ -3618,7 +3723,7 @@
         <v>6400</v>
       </c>
       <c r="J47" s="3">
-        <v>6900</v>
+        <v>6400</v>
       </c>
       <c r="K47" s="3">
         <v>6900</v>
@@ -3633,7 +3738,7 @@
         <v>6900</v>
       </c>
       <c r="O47" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="P47" s="3">
         <v>6800</v>
@@ -3642,7 +3747,7 @@
         <v>6800</v>
       </c>
       <c r="R47" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="S47" s="3">
         <v>7100</v>
@@ -3651,7 +3756,7 @@
         <v>7100</v>
       </c>
       <c r="U47" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="V47" s="3">
         <v>7000</v>
@@ -3672,96 +3777,102 @@
         <v>7000</v>
       </c>
       <c r="AB47" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="AC47" s="3">
         <v>6700</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>132300</v>
+      </c>
+      <c r="E48" s="3">
         <v>134200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>136400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>109800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>87700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>89900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>92500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>94000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>96100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>97200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>91900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>94300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>96600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>99900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>47800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>44100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>44000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>44300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>45300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>46100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>46300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>46500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>45200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>44100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>37800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>36900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3772,7 +3883,7 @@
         <v>21900</v>
       </c>
       <c r="F49" s="3">
-        <v>22000</v>
+        <v>21900</v>
       </c>
       <c r="G49" s="3">
         <v>22000</v>
@@ -3787,13 +3898,13 @@
         <v>22000</v>
       </c>
       <c r="K49" s="3">
-        <v>22100</v>
+        <v>22000</v>
       </c>
       <c r="L49" s="3">
         <v>22100</v>
       </c>
       <c r="M49" s="3">
-        <v>19300</v>
+        <v>22100</v>
       </c>
       <c r="N49" s="3">
         <v>19300</v>
@@ -3802,7 +3913,7 @@
         <v>19300</v>
       </c>
       <c r="P49" s="3">
-        <v>19600</v>
+        <v>19300</v>
       </c>
       <c r="Q49" s="3">
         <v>19600</v>
@@ -3811,13 +3922,13 @@
         <v>19600</v>
       </c>
       <c r="S49" s="3">
-        <v>12800</v>
+        <v>19600</v>
       </c>
       <c r="T49" s="3">
         <v>12800</v>
       </c>
       <c r="U49" s="3">
-        <v>13600</v>
+        <v>12800</v>
       </c>
       <c r="V49" s="3">
         <v>13600</v>
@@ -3838,13 +3949,16 @@
         <v>13600</v>
       </c>
       <c r="AB49" s="3">
+        <v>13600</v>
+      </c>
+      <c r="AC49" s="3">
         <v>12800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3926,8 +4040,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4009,13 +4126,16 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="E52" s="3">
         <v>5600</v>
@@ -4024,52 +4144,52 @@
         <v>5600</v>
       </c>
       <c r="G52" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H52" s="3">
         <v>5700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5700</v>
-      </c>
-      <c r="V52" s="3">
-        <v>5400</v>
       </c>
       <c r="W52" s="3">
         <v>5400</v>
@@ -4078,22 +4198,25 @@
         <v>5400</v>
       </c>
       <c r="Y52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Z52" s="3">
         <v>4200</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>5300</v>
       </c>
       <c r="AA52" s="3">
         <v>5300</v>
       </c>
       <c r="AB52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="AC52" s="3">
         <v>5600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4175,91 +4298,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>193300</v>
+      </c>
+      <c r="E54" s="3">
         <v>203600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>209500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>182800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>156200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>158800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>161200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>162100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>160800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>158800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>153300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>157300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>143200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>147200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>94700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>89800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>79800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>80600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>84700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>85200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>81900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>81000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>80100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>78800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>74200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>75200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>68300</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4289,8 +4418,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4320,126 +4450,130 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3400</v>
-      </c>
-      <c r="S57" s="3">
-        <v>4500</v>
       </c>
       <c r="T57" s="3">
         <v>4500</v>
       </c>
       <c r="U57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="V57" s="3">
         <v>5000</v>
-      </c>
-      <c r="V57" s="3">
-        <v>4600</v>
       </c>
       <c r="W57" s="3">
         <v>4600</v>
       </c>
       <c r="X57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Y57" s="3">
         <v>5000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E58" s="3">
         <v>5600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>2700</v>
       </c>
       <c r="O58" s="3">
         <v>2700</v>
@@ -4454,354 +4588,366 @@
         <v>2700</v>
       </c>
       <c r="S58" s="3">
-        <v>1200</v>
+        <v>2700</v>
       </c>
       <c r="T58" s="3">
         <v>1200</v>
       </c>
       <c r="U58" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="V58" s="3">
         <v>1300</v>
       </c>
       <c r="W58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X58" s="3">
         <v>15200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>12700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>10400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>7900</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>4200</v>
       </c>
       <c r="AB58" s="3">
         <v>4200</v>
       </c>
       <c r="AC58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AD58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E59" s="3">
         <v>20200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>9000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>11000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>11600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>10900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>10000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E60" s="3">
         <v>30600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>34900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>30500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>31100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>31700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>33600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>30100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>24300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>17800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>17600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>30000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>26800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>26200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>24000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>19100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>17700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E61" s="3">
         <v>16000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>17100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>18200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>25500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>29500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>41400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>36100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>43700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>25500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>23100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>23800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>24500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>19900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>20200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>10000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>11100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E62" s="3">
         <v>95400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>97400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>71600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>49400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>50500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>52600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>54600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>56300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>56500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>50000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>51600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>53200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>56200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10100</v>
-      </c>
-      <c r="R62" s="3">
-        <v>3000</v>
       </c>
       <c r="S62" s="3">
         <v>3000</v>
       </c>
       <c r="T62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U62" s="3">
         <v>3100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3500</v>
-      </c>
-      <c r="X62" s="3">
-        <v>3600</v>
       </c>
       <c r="Y62" s="3">
         <v>3600</v>
@@ -4813,13 +4959,16 @@
         <v>3600</v>
       </c>
       <c r="AB62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="AC62" s="3">
         <v>3500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4901,8 +5050,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4984,8 +5136,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5067,91 +5222,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>134700</v>
+      </c>
+      <c r="E66" s="3">
         <v>142500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>149700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>123400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>102300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>106100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>110800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>118600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>120400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>122900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>116800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>119800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>103200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>104600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>52800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>46500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>39800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>39100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>42400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>42900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>42000</v>
-      </c>
-      <c r="X66" s="3">
-        <v>39600</v>
       </c>
       <c r="Y66" s="3">
         <v>39600</v>
       </c>
       <c r="Z66" s="3">
+        <v>39600</v>
+      </c>
+      <c r="AA66" s="3">
         <v>38800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>34800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>34600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5181,8 +5342,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5264,8 +5426,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5347,8 +5512,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5430,8 +5598,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5513,91 +5684,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E72" s="3">
         <v>45500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>44300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>44000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>39100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>38100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>35900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>29100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>26400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>23000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>24000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>26500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>29200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>28600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>30000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>26900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>28400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>29400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>28800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>27000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>28500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>27800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>27300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>26800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>28000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5679,8 +5856,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5762,8 +5942,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5845,91 +6028,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E76" s="3">
         <v>61200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>59800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>59300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>53800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>52700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>50400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>43500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>40500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>35800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>37500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>40000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>42500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>41900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>43300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>39900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>41500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>42300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>42200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>39900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>41400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>40400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>39900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>39400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>40600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6011,179 +6200,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44198</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44107</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6213,55 +6411,56 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1100</v>
       </c>
       <c r="H83" s="3">
         <v>1100</v>
       </c>
       <c r="I83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>900</v>
       </c>
       <c r="M83" s="3">
         <v>900</v>
       </c>
       <c r="N83" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="O83" s="3">
         <v>1000</v>
       </c>
       <c r="P83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1700</v>
-      </c>
-      <c r="R83" s="3">
-        <v>1200</v>
       </c>
       <c r="S83" s="3">
         <v>1200</v>
@@ -6273,7 +6472,7 @@
         <v>1200</v>
       </c>
       <c r="V83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="W83" s="3">
         <v>1300</v>
@@ -6282,22 +6481,25 @@
         <v>1300</v>
       </c>
       <c r="Y83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z83" s="3">
         <v>900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1000</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>1100</v>
       </c>
       <c r="AB83" s="3">
         <v>1100</v>
       </c>
       <c r="AC83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AD83" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6379,8 +6581,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6462,8 +6667,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6545,8 +6753,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6628,8 +6839,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6711,91 +6925,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>5200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6825,28 +7045,29 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-500</v>
       </c>
       <c r="J91" s="3">
         <v>-500</v>
@@ -6855,61 +7076,64 @@
         <v>-500</v>
       </c>
       <c r="L91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-7300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6991,8 +7215,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7074,91 +7301,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6000</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-700</v>
       </c>
       <c r="G94" s="3">
         <v>-700</v>
       </c>
       <c r="H94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-500</v>
       </c>
       <c r="L94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M94" s="3">
         <v>-2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-7300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7188,8 +7421,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7200,7 +7434,7 @@
         <v>-500</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -7227,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-900</v>
@@ -7236,31 +7470,31 @@
         <v>-900</v>
       </c>
       <c r="R96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-900</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="AA96" s="3">
         <v>-900</v>
@@ -7271,8 +7505,11 @@
       <c r="AC96" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7354,8 +7591,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7437,8 +7677,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7520,91 +7763,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1700</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-2100</v>
       </c>
       <c r="G100" s="3">
         <v>-2100</v>
       </c>
       <c r="H100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I100" s="3">
         <v>-2400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>18200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1400</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-1600</v>
       </c>
       <c r="Q100" s="3">
         <v>-1600</v>
       </c>
       <c r="R100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7686,87 +7935,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1800</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>4000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-3800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARKR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>ARKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,386 +665,399 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44198</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44107</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E8" s="3">
         <v>41900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>47400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>46900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>53200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>39600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>44000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>42800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>43000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>25800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>34000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>43500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>41700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>44800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>35300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>40500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>40600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>44800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>35300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>39300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>39800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>41200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>34600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>38400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E9" s="3">
         <v>11800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>10500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>11900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>9700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>10200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>10800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>11200</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>9800</v>
       </c>
       <c r="AC9" s="3">
         <v>9800</v>
       </c>
       <c r="AD9" s="3">
+        <v>9800</v>
+      </c>
+      <c r="AE9" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E10" s="3">
         <v>30100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>35000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>33900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>38500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>27300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>31500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>30200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>30300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>15600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>24400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>32600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>30200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>33100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>25500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>30000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>29400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>32900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>25600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>29100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>29000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>30000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>24800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>28700</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1075,8 +1088,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1161,8 +1175,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1247,8 +1264,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1256,59 +1276,59 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1100</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-3900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-3200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-4100</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>2900</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>1100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1328,13 +1348,16 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>-1400</v>
       </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1342,49 +1365,49 @@
         <v>1100</v>
       </c>
       <c r="E15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F15" s="3">
         <v>1000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1100</v>
       </c>
       <c r="I15" s="3">
         <v>1100</v>
       </c>
       <c r="J15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K15" s="3">
         <v>600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>900</v>
       </c>
       <c r="N15" s="3">
         <v>900</v>
       </c>
       <c r="O15" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="P15" s="3">
         <v>1000</v>
       </c>
       <c r="Q15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R15" s="3">
         <v>1200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1700</v>
-      </c>
-      <c r="S15" s="3">
-        <v>1200</v>
       </c>
       <c r="T15" s="3">
         <v>1200</v>
@@ -1396,7 +1419,7 @@
         <v>1200</v>
       </c>
       <c r="W15" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="X15" s="3">
         <v>1300</v>
@@ -1405,22 +1428,25 @@
         <v>1300</v>
       </c>
       <c r="Z15" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="AA15" s="3">
         <v>1000</v>
       </c>
       <c r="AB15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC15" s="3">
         <v>2100</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>1200</v>
       </c>
       <c r="AD15" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1448,180 +1474,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E17" s="3">
         <v>41900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>45000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>45500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>46500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>38200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>41200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>33900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>34700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>24400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>35900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>41100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>43600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>40100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>35200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>40200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>39600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>41000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>35800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>38500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>37600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>38900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>34900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>35500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>3000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1652,16 +1685,17 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1673,11 +1707,11 @@
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1688,17 +1722,17 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1709,11 +1743,11 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1721,125 +1755,131 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>200</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>100</v>
       </c>
       <c r="AC20" s="3">
         <v>100</v>
       </c>
       <c r="AD20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E21" s="3">
         <v>1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>4200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>400</v>
       </c>
       <c r="G22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
@@ -1860,25 +1900,25 @@
         <v>300</v>
       </c>
       <c r="N22" s="3">
+        <v>300</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>300</v>
       </c>
       <c r="P22" s="3">
         <v>300</v>
       </c>
       <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+      <c r="R22" s="3">
         <v>500</v>
-      </c>
-      <c r="R22" s="3">
-        <v>400</v>
       </c>
       <c r="S22" s="3">
         <v>400</v>
       </c>
       <c r="T22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U22" s="3">
         <v>300</v>
@@ -1893,197 +1933,206 @@
         <v>300</v>
       </c>
       <c r="Y22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z22" s="3">
         <v>200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>300</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>200</v>
       </c>
       <c r="AB22" s="3">
         <v>200</v>
       </c>
       <c r="AC22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>3000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-3100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>900</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2168,180 +2217,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>3300</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>3700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>3200</v>
       </c>
       <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2426,8 +2484,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2467,8 +2528,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2485,20 +2546,20 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-2600</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>1200</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2512,8 +2573,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2598,8 +2662,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2684,16 +2751,19 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -2705,11 +2775,11 @@
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2720,17 +2790,17 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2741,11 +2811,11 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2753,111 +2823,117 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>-100</v>
       </c>
       <c r="AC32" s="3">
         <v>-100</v>
       </c>
       <c r="AD32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>3200</v>
       </c>
       <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2942,185 +3018,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>3200</v>
       </c>
       <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44198</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44107</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3151,8 +3236,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3183,94 +3269,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E41" s="3">
         <v>17900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>26600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>20200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7300</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>7200</v>
       </c>
       <c r="R41" s="3">
         <v>7200</v>
       </c>
       <c r="S41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="T41" s="3">
         <v>5600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>600</v>
       </c>
-      <c r="Y41" s="3" t="s">
+      <c r="Z41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1000</v>
       </c>
-      <c r="AA41" s="3" t="s">
+      <c r="AB41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4200</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3278,13 +3368,13 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
         <v>5000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
+      <c r="G42" s="3">
+        <v>5000</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -3298,8 +3388,8 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -3322,41 +3412,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
+      <c r="T42" s="3">
+        <v>0</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W42" s="3">
         <v>200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>200</v>
-      </c>
-      <c r="Z42" s="3">
-        <v>400</v>
       </c>
       <c r="AA42" s="3">
         <v>400</v>
       </c>
       <c r="AB42" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC42" s="3">
         <v>100</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>500</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3364,141 +3457,144 @@
         <v>4100</v>
       </c>
       <c r="E43" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F43" s="3">
         <v>4600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>4300</v>
       </c>
       <c r="I43" s="3">
         <v>4300</v>
       </c>
       <c r="J43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K43" s="3">
         <v>4500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3500</v>
-      </c>
-      <c r="V43" s="3">
-        <v>3800</v>
       </c>
       <c r="W43" s="3">
         <v>3800</v>
       </c>
       <c r="X43" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Y43" s="3">
         <v>3900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4300</v>
-      </c>
-      <c r="AC43" s="3">
-        <v>4200</v>
       </c>
       <c r="AD43" s="3">
         <v>4200</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E44" s="3">
         <v>3300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3500</v>
-      </c>
-      <c r="K44" s="3">
-        <v>2200</v>
       </c>
       <c r="L44" s="3">
         <v>2200</v>
       </c>
       <c r="M44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N44" s="3">
         <v>2400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2000</v>
-      </c>
-      <c r="U44" s="3">
-        <v>2100</v>
       </c>
       <c r="V44" s="3">
         <v>2100</v>
@@ -3507,7 +3603,7 @@
         <v>2100</v>
       </c>
       <c r="X44" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="Y44" s="3">
         <v>2000</v>
@@ -3516,191 +3612,200 @@
         <v>2000</v>
       </c>
       <c r="AA44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AB44" s="3">
         <v>2100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1300</v>
-      </c>
-      <c r="S45" s="3">
-        <v>1600</v>
       </c>
       <c r="T45" s="3">
         <v>1600</v>
       </c>
       <c r="U45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V45" s="3">
         <v>2000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>2200</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E46" s="3">
         <v>27400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>35400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>39100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>39000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>34300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>34800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>34300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>31400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>26900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>28900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>13200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>13100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>10100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>10500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>13200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3717,7 +3822,7 @@
         <v>6500</v>
       </c>
       <c r="H47" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="I47" s="3">
         <v>6400</v>
@@ -3726,7 +3831,7 @@
         <v>6400</v>
       </c>
       <c r="K47" s="3">
-        <v>6900</v>
+        <v>6400</v>
       </c>
       <c r="L47" s="3">
         <v>6900</v>
@@ -3741,7 +3846,7 @@
         <v>6900</v>
       </c>
       <c r="P47" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="Q47" s="3">
         <v>6800</v>
@@ -3750,7 +3855,7 @@
         <v>6800</v>
       </c>
       <c r="S47" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="T47" s="3">
         <v>7100</v>
@@ -3759,7 +3864,7 @@
         <v>7100</v>
       </c>
       <c r="V47" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="W47" s="3">
         <v>7000</v>
@@ -3780,99 +3885,105 @@
         <v>7000</v>
       </c>
       <c r="AC47" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="AD47" s="3">
         <v>6700</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>130300</v>
+      </c>
+      <c r="E48" s="3">
         <v>132300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>134200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>136400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>109800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>87700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>89900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>92500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>94000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>96100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>97200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>91900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>94300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>96600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>99900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>47800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>44100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>44000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>44300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>45300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>46100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>46300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>46500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>45200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>44100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>37800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>36900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3886,7 +3997,7 @@
         <v>21900</v>
       </c>
       <c r="G49" s="3">
-        <v>22000</v>
+        <v>21900</v>
       </c>
       <c r="H49" s="3">
         <v>22000</v>
@@ -3901,13 +4012,13 @@
         <v>22000</v>
       </c>
       <c r="L49" s="3">
-        <v>22100</v>
+        <v>22000</v>
       </c>
       <c r="M49" s="3">
         <v>22100</v>
       </c>
       <c r="N49" s="3">
-        <v>19300</v>
+        <v>22100</v>
       </c>
       <c r="O49" s="3">
         <v>19300</v>
@@ -3916,7 +4027,7 @@
         <v>19300</v>
       </c>
       <c r="Q49" s="3">
-        <v>19600</v>
+        <v>19300</v>
       </c>
       <c r="R49" s="3">
         <v>19600</v>
@@ -3925,13 +4036,13 @@
         <v>19600</v>
       </c>
       <c r="T49" s="3">
-        <v>12800</v>
+        <v>19600</v>
       </c>
       <c r="U49" s="3">
         <v>12800</v>
       </c>
       <c r="V49" s="3">
-        <v>13600</v>
+        <v>12800</v>
       </c>
       <c r="W49" s="3">
         <v>13600</v>
@@ -3952,13 +4063,16 @@
         <v>13600</v>
       </c>
       <c r="AC49" s="3">
+        <v>13600</v>
+      </c>
+      <c r="AD49" s="3">
         <v>12800</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4043,8 +4157,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4129,16 +4246,19 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E52" s="3">
         <v>5200</v>
-      </c>
-      <c r="E52" s="3">
-        <v>5600</v>
       </c>
       <c r="F52" s="3">
         <v>5600</v>
@@ -4147,52 +4267,52 @@
         <v>5600</v>
       </c>
       <c r="H52" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I52" s="3">
         <v>5700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5700</v>
-      </c>
-      <c r="W52" s="3">
-        <v>5400</v>
       </c>
       <c r="X52" s="3">
         <v>5400</v>
@@ -4201,22 +4321,25 @@
         <v>5400</v>
       </c>
       <c r="Z52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="AA52" s="3">
         <v>4200</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>5300</v>
       </c>
       <c r="AB52" s="3">
         <v>5300</v>
       </c>
       <c r="AC52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="AD52" s="3">
         <v>5600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4301,94 +4424,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>187000</v>
+      </c>
+      <c r="E54" s="3">
         <v>193300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>203600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>209500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>182800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>156200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>158800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>161200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>162100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>160800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>158800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>153300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>157300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>143200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>147200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>94700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>89800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>79800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>80600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>84700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>85200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>81900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>81000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>80100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>78800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>74200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>75200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>68300</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4419,8 +4548,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4451,132 +4581,136 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E57" s="3">
         <v>4100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3400</v>
-      </c>
-      <c r="T57" s="3">
-        <v>4500</v>
       </c>
       <c r="U57" s="3">
         <v>4500</v>
       </c>
       <c r="V57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="W57" s="3">
         <v>5000</v>
-      </c>
-      <c r="W57" s="3">
-        <v>4600</v>
       </c>
       <c r="X57" s="3">
         <v>4600</v>
       </c>
       <c r="Y57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Z57" s="3">
         <v>5000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>3500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
         <v>8100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>2700</v>
       </c>
       <c r="P58" s="3">
         <v>2700</v>
@@ -4591,366 +4725,378 @@
         <v>2700</v>
       </c>
       <c r="T58" s="3">
-        <v>1200</v>
+        <v>2700</v>
       </c>
       <c r="U58" s="3">
         <v>1200</v>
       </c>
       <c r="V58" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="W58" s="3">
         <v>1300</v>
       </c>
       <c r="X58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y58" s="3">
         <v>15200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>12700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>10400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>7900</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>4200</v>
       </c>
       <c r="AC58" s="3">
         <v>4200</v>
       </c>
       <c r="AD58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AE58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E59" s="3">
         <v>21000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>23800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>9300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>10300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>9000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>11000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>11600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>10900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>10000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E60" s="3">
         <v>33200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>30600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>33500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>30500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>31100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>31700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>33600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>24400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>30100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>24300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>15000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>17800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>17600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>30000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>26800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>26200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>24000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>19100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>17700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E61" s="3">
         <v>6200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>17100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>18200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>25500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>29500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>41400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>36100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>43700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>25500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>23100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>23800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>24500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>19600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>19900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>20200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>9000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>10000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>11100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>91300</v>
+      </c>
+      <c r="E62" s="3">
         <v>93400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>95400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>97400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>71600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>49400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>50500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>52600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>54600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>56300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>56500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>50000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>51600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>53200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>56200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10100</v>
-      </c>
-      <c r="S62" s="3">
-        <v>3000</v>
       </c>
       <c r="T62" s="3">
         <v>3000</v>
       </c>
       <c r="U62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="V62" s="3">
         <v>3100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3500</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>3600</v>
       </c>
       <c r="Z62" s="3">
         <v>3600</v>
@@ -4962,13 +5108,16 @@
         <v>3600</v>
       </c>
       <c r="AC62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="AD62" s="3">
         <v>3500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5053,8 +5202,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5139,8 +5291,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5225,94 +5380,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>125800</v>
+      </c>
+      <c r="E66" s="3">
         <v>134700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>142500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>149700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>123400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>102300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>106100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>110800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>118600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>120400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>122900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>116800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>119800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>103200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>104600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>52800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>46500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>39800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>39100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>42400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>42900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>42000</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>39600</v>
       </c>
       <c r="Z66" s="3">
         <v>39600</v>
       </c>
       <c r="AA66" s="3">
+        <v>39600</v>
+      </c>
+      <c r="AB66" s="3">
         <v>38800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>34800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>34600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5343,8 +5504,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5429,8 +5591,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5515,8 +5680,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5601,8 +5769,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5687,94 +5858,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E72" s="3">
         <v>44600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>45500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>44300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>44000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>39100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>38100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>35900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>29100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>26400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>24000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>26500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>29200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>28600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>30000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>26900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>28400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>29400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>28800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>27000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>28500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>27800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>27300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>26800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>28000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5859,8 +6036,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5945,8 +6125,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6031,94 +6214,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>61300</v>
+      </c>
+      <c r="E76" s="3">
         <v>58600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>61200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>59800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>59300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>53800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>52700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>50400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>43500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>40500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>35800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>37500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>40000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>42500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>41900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>43300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>39900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>41500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>42300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>42200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>39900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>41400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>40400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>39900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>39400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>40600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6203,185 +6392,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44198</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44107</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>3200</v>
       </c>
       <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6412,8 +6610,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6421,49 +6620,49 @@
         <v>1100</v>
       </c>
       <c r="E83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F83" s="3">
         <v>1000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1100</v>
       </c>
       <c r="I83" s="3">
         <v>1100</v>
       </c>
       <c r="J83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>900</v>
       </c>
       <c r="N83" s="3">
         <v>900</v>
       </c>
       <c r="O83" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="P83" s="3">
         <v>1000</v>
       </c>
       <c r="Q83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R83" s="3">
         <v>1200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1700</v>
-      </c>
-      <c r="S83" s="3">
-        <v>1200</v>
       </c>
       <c r="T83" s="3">
         <v>1200</v>
@@ -6475,7 +6674,7 @@
         <v>1200</v>
       </c>
       <c r="W83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="X83" s="3">
         <v>1300</v>
@@ -6484,22 +6683,25 @@
         <v>1300</v>
       </c>
       <c r="Z83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AA83" s="3">
         <v>900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1000</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>1100</v>
       </c>
       <c r="AC83" s="3">
         <v>1100</v>
       </c>
       <c r="AD83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AE83" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6584,8 +6786,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6670,8 +6875,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6756,8 +6964,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6842,8 +7053,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6928,94 +7142,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E89" s="3">
         <v>3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>5200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7046,31 +7266,32 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-500</v>
       </c>
       <c r="K91" s="3">
         <v>-500</v>
@@ -7079,61 +7300,64 @@
         <v>-500</v>
       </c>
       <c r="M91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-7300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7218,8 +7442,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7304,94 +7531,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E94" s="3">
         <v>3700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6000</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-700</v>
       </c>
       <c r="H94" s="3">
         <v>-700</v>
       </c>
       <c r="I94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-500</v>
       </c>
       <c r="M94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N94" s="3">
         <v>-2400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-7300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-3000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-2300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7422,13 +7655,14 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="E96" s="3">
         <v>-500</v>
@@ -7437,7 +7671,7 @@
         <v>-500</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -7464,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-900</v>
@@ -7473,31 +7707,31 @@
         <v>-900</v>
       </c>
       <c r="S96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-900</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="AB96" s="3">
         <v>-900</v>
@@ -7508,8 +7742,11 @@
       <c r="AD96" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7594,8 +7831,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7680,8 +7920,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7766,94 +8009,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1700</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-2100</v>
       </c>
       <c r="H100" s="3">
         <v>-2100</v>
       </c>
       <c r="I100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-2400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>18200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-1600</v>
       </c>
       <c r="R100" s="3">
         <v>-1600</v>
       </c>
       <c r="S100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="T100" s="3">
         <v>-1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7938,90 +8187,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>1600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1800</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>4000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-2600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-1300</v>
       </c>
     </row>
